--- a/Data/MGKP4.xlsx
+++ b/Data/MGKP4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kemal\Caltech\Third Year Classes\EE 154\Lab 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kemal\Caltech\Third Year Classes\EE 154\ee154hab\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{70ABE17B-9D3B-411A-810E-78CDAD49BAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B27FAFE-E5EF-4A9B-B16E-984AE1A455EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MGKP4" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5326,6 +5326,1299 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accel Z (m/s^2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$166</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="165"/>
+                <c:pt idx="0">
+                  <c:v>5536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15788</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20912</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26037</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31164</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36289</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41478</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46603</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51727</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56854</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61978</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67102</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72226</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>77422</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82550</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87674</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>92800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>97923</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>103051</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>108194</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>113423</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>118547</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>123672</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>128800</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>133925</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>139170</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>144294</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>149422</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>154549</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>159677</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>164805</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>169952</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>175191</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>180319</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>185446</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>190577</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>195705</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>200833</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>206055</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>211185</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>216312</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>221440</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>226568</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>231699</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>236974</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>242102</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>247229</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>252360</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>257488</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>262615</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>267746</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>272987</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>278114</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>283241</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>288371</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>293498</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>298625</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>303873</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>309003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>314130</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>319258</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>324385</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>329516</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>334739</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>339919</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>345047</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>350178</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>355305</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>360432</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>365559</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>370755</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>375882</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>381009</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>386137</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>391268</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>396396</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>401673</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>406800</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>411931</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>417058</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>422187</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>427317</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>432444</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>437688</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>442815</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>447945</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>453073</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>458201</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>463329</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>468564</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>473692</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>478819</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>483947</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>489077</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>494205</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>499385</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>504600</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>509731</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>514859</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>519987</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>525115</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>530246</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>535443</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>540570</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>545698</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>550829</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>555956</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>561083</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>566282</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>571478</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>576606</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>581734</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>586865</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>591992</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>597120</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>602337</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>607467</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>612595</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>617723</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>622851</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>627981</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>633253</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>638381</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>643508</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>648639</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>653767</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>658894</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>664039</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>669273</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>674400</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>679528</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>684658</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>689786</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>694913</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>700134</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>705264</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>710391</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>715518</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>720646</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>725776</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>730939</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>736162</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>741291</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>746422</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>751550</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>756677</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>761806</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>767034</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>772162</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>777290</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>782420</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>787547</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>792679</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>797952</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>803082</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>808210</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>813338</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>818466</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>823597</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>828725</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>833963</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>839091</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>844221</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>849349</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$2:$V$166</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="165"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1195-49DF-9059-FA5C3935444D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1346047472"/>
+        <c:axId val="1624535680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1346047472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1624535680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1624535680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1346047472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5367,6 +6660,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6438,20 +7771,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6478,16 +8327,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>147637</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>452437</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6507,6 +8356,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E14AFB0-FC6A-50D8-5C9F-7B674CA7376E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6811,7 +8696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X215"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -21103,12 +22988,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/MGKP4.xlsx
+++ b/Data/MGKP4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kemal\Caltech\Third Year Classes\EE 154\ee154hab\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B27FAFE-E5EF-4A9B-B16E-984AE1A455EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7672AB04-CF4E-44EA-B5D4-CD1B98682C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="23">
   <si>
     <t>nan</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Int. Temperature (°C)</t>
+  </si>
+  <si>
+    <t>Time Remaining</t>
   </si>
 </sst>
 </file>
@@ -570,9 +573,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3850,6 +3856,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3915,6 +3976,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature (*C)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5143,6 +5259,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5208,6 +5379,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Humidity (%RH)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6436,6 +6662,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6501,6 +6782,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accel Z (m/s^2) </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6533,6 +6869,1414 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1346047472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Battery Current (A)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$166</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="165"/>
+                <c:pt idx="0">
+                  <c:v>5536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15788</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20912</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26037</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31164</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36289</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41478</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46603</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51727</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56854</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61978</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67102</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72226</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>77422</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82550</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87674</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>92800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>97923</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>103051</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>108194</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>113423</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>118547</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>123672</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>128800</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>133925</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>139170</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>144294</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>149422</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>154549</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>159677</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>164805</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>169952</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>175191</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>180319</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>185446</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>190577</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>195705</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>200833</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>206055</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>211185</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>216312</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>221440</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>226568</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>231699</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>236974</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>242102</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>247229</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>252360</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>257488</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>262615</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>267746</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>272987</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>278114</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>283241</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>288371</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>293498</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>298625</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>303873</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>309003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>314130</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>319258</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>324385</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>329516</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>334739</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>339919</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>345047</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>350178</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>355305</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>360432</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>365559</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>370755</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>375882</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>381009</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>386137</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>391268</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>396396</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>401673</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>406800</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>411931</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>417058</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>422187</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>427317</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>432444</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>437688</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>442815</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>447945</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>453073</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>458201</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>463329</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>468564</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>473692</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>478819</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>483947</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>489077</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>494205</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>499385</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>504600</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>509731</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>514859</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>519987</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>525115</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>530246</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>535443</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>540570</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>545698</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>550829</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>555956</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>561083</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>566282</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>571478</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>576606</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>581734</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>586865</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>591992</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>597120</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>602337</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>607467</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>612595</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>617723</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>622851</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>627981</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>633253</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>638381</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>643508</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>648639</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>653767</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>658894</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>664039</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>669273</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>674400</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>679528</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>684658</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>689786</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>694913</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>700134</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>705264</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>710391</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>715518</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>720646</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>725776</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>730939</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>736162</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>741291</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>746422</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>751550</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>756677</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>761806</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>767034</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>772162</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>777290</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>782420</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>787547</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>792679</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>797952</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>803082</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>808210</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>813338</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>818466</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>823597</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>828725</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>833963</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>839091</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>844221</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>849349</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$2:$W$166</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="165"/>
+                <c:pt idx="0">
+                  <c:v>153.52000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>136.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>142.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>145.53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>142.11000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>144.38999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150.66999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>142.68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>138.69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>148.38999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>148.38999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>135.27000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>145.53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150.66999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>147.82</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>148.96</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>151.81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>140.97</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>140.97</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>116.44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>108.46</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>109.03</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>117.01</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>115.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>114.73</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>123.86</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>121.01</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>106.18</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>114.73</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>124.43</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>103.32</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>107.89</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>123.86</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>111.88</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>118.15</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>122.15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>110.74</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>103.32</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>103.32</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>119.3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>110.17</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>115.3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>113.59</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>102.75</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>121.01</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>114.16</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>123.29</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>123.86</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>119.3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>126.14</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>115.87</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>110.17</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>111.31</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>118.15</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>121.58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>119.3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>108.46</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>113.59</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>115.3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>118.73</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>154.66</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>163.22</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>160.36000000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>160.93</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>162.65</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>166.07</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>168.35</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>170.63</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>167.78</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>164.93</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>176.9</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>171.77</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>162.07</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>155.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>170.63</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>166.07</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>159.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>156.37</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>165.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>166.07</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>167.21</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>165.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>165.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>173.48</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>174.62</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>167.21</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>168.35</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>159.22</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>170.06</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>175.19</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>169.49</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>167.78</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>162.65</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>158.65</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>169.49</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>168.92</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>169.49</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>159.22</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>199.15</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>189.45</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>188.88</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>188.31</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>193.45</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>195.73</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>184.89</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>187.74</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>187.17</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>182.04</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>189.45</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>147.24</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>155.22999999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>162.65</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>160.36000000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>143.25</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>142.11000000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>153.52000000000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>180.33</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>154.09</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>172.34</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>150.66999999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>137.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>144.96</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>132.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>135.27000000000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>135.84</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128.41999999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>153.52000000000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>117.01</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>152.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>169.49</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>166.07</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>152.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>148.96</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>145.53</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>148.38999999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>151.81</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>143.25</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>150.66999999999999</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142.68</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>163.22</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>150.1</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>148.38999999999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>142.11000000000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>139.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>149.53</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>140.4</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>142.11000000000001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>115.3</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>118.73</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>121.01</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>114.16</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>120.44</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>123.86</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>95.34</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>93.63</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>84.5</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>92.49</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>143.25</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>110.17</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>135.84</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>142.11000000000001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>168.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A1D-43F3-A9BA-8694FB8DD8DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1867782463"/>
+        <c:axId val="1260830463"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1867782463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1260830463"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1260830463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Battery Current (A)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1867782463"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6700,6 +8444,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8287,20 +10071,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>341538</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>29254</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>36737</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>105454</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8327,16 +10627,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>328612</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>131308</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>540883</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>17008</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8363,16 +10663,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>608239</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>134029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>300717</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19729</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8392,6 +10692,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>87085</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>394606</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FD4FE7F-8E62-4E1E-BFAA-FA1B61FCF9B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8701,7 +11039,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:X1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22989,16 +25327,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X166"/>
+  <dimension ref="A1:Z166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2:S2"/>
+      <selection pane="bottomLeft" activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="26" max="26" width="13.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -23065,8 +25406,11 @@
       <c r="X1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5536</v>
       </c>
@@ -23122,7 +25466,7 @@
         <v>17.32</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10663</v>
       </c>
@@ -23178,7 +25522,7 @@
         <v>17.32</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15788</v>
       </c>
@@ -23234,7 +25578,7 @@
         <v>17.32</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20912</v>
       </c>
@@ -23290,7 +25634,7 @@
         <v>17.32</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>26037</v>
       </c>
@@ -23346,7 +25690,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>31164</v>
       </c>
@@ -23402,7 +25746,7 @@
         <v>17.32</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>36289</v>
       </c>
@@ -23458,7 +25802,7 @@
         <v>17.32</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>41478</v>
       </c>
@@ -23514,7 +25858,7 @@
         <v>17.32</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>46603</v>
       </c>
@@ -23570,7 +25914,7 @@
         <v>17.32</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>51727</v>
       </c>
@@ -23626,7 +25970,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>56854</v>
       </c>
@@ -23682,7 +26026,7 @@
         <v>17.32</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>61978</v>
       </c>
@@ -23738,7 +26082,7 @@
         <v>17.32</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>67102</v>
       </c>
@@ -23794,7 +26138,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>72226</v>
       </c>
@@ -23850,7 +26194,7 @@
         <v>17.39</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>77422</v>
       </c>

--- a/Data/MGKP4.xlsx
+++ b/Data/MGKP4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kemal\Caltech\Third Year Classes\EE 154\ee154hab\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A401C74D-028B-4BBF-941E-E58E61D592CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685FF14C-A12E-421E-9221-D3ECE94374CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,15 +120,6 @@
     <t>Rot Z Rate (°/s)</t>
   </si>
   <si>
-    <t>Accel X (m/s^2)</t>
-  </si>
-  <si>
-    <t>Accel Y (m/s^2)</t>
-  </si>
-  <si>
-    <t>Accel Z (m/s^2)</t>
-  </si>
-  <si>
     <t>Battery Current (mA)</t>
   </si>
   <si>
@@ -148,6 +139,15 @@
   </si>
   <si>
     <t>Time left in batt. (hrs)</t>
+  </si>
+  <si>
+    <t>Accel X (g)</t>
+  </si>
+  <si>
+    <t>Accel Y  (g)</t>
+  </si>
+  <si>
+    <t>Accel Z  (g)</t>
   </si>
 </sst>
 </file>
@@ -12890,811 +12890,811 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="269"/>
                 <c:pt idx="0">
-                  <c:v>14.303082314238717</c:v>
+                  <c:v>14.301542592016494</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.450074025333116</c:v>
+                  <c:v>16.447110969777558</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.764459346186086</c:v>
+                  <c:v>16.760072401741642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.260723224303099</c:v>
+                  <c:v>17.254912946525319</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.092556191778481</c:v>
+                  <c:v>17.08532258066737</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.297262059973924</c:v>
+                  <c:v>16.288605115529482</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.785682525566919</c:v>
+                  <c:v>17.775601414455807</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.540167211922936</c:v>
+                  <c:v>14.528661100811824</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.450074025333116</c:v>
+                  <c:v>16.437105136444227</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.221915808256956</c:v>
+                  <c:v>16.207522474923621</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.009695526450077</c:v>
+                  <c:v>16.9938777486723</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.297262059973924</c:v>
+                  <c:v>16.280019004418371</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.910907328710952</c:v>
+                  <c:v>14.89220760648873</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.527559705809438</c:v>
+                  <c:v>16.507435261364993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.573898146706123</c:v>
+                  <c:v>15.552349257817234</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.855398763278897</c:v>
+                  <c:v>15.832424596612229</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16.450074025333116</c:v>
+                  <c:v>16.425675414222003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16.450074025333116</c:v>
+                  <c:v>16.42425096977756</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.684741803620589</c:v>
+                  <c:v>16.657451248065033</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.855398763278897</c:v>
+                  <c:v>15.826683763278895</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>16.684741803620589</c:v>
+                  <c:v>16.654602359176145</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>16.221915808256956</c:v>
+                  <c:v>16.190351919368066</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17.519271198318151</c:v>
+                  <c:v>17.486282031651484</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>16.605778811026237</c:v>
+                  <c:v>16.571365199915128</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>18.248175182481752</c:v>
+                  <c:v>18.212337404703973</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>16.073294221650727</c:v>
+                  <c:v>16.035988943872947</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>16.221915808256956</c:v>
+                  <c:v>16.183185252701399</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>18.153762367250611</c:v>
+                  <c:v>18.113607367250612</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17.519271198318151</c:v>
+                  <c:v>17.477691753873707</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>16.527559705809438</c:v>
+                  <c:v>16.484555816920547</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>16.37331150225133</c:v>
+                  <c:v>16.328882335584662</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>16.8449423060726</c:v>
+                  <c:v>16.799068139405932</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>16.073294221650727</c:v>
+                  <c:v>16.025995610539614</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>15.713387806411061</c:v>
+                  <c:v>15.664663917522173</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>15.855398763278897</c:v>
+                  <c:v>15.805250152167787</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>17.69598301185631</c:v>
+                  <c:v>17.644409678522976</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>15.784073869465709</c:v>
+                  <c:v>15.731075813910154</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>16.221915808256956</c:v>
+                  <c:v>16.167429974923621</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>17.260723224303099</c:v>
+                  <c:v>17.204812668747543</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>16.147263038914904</c:v>
+                  <c:v>16.089928038914906</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>16.37331150225133</c:v>
+                  <c:v>16.314551780029106</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>15.104599350502228</c:v>
+                  <c:v>15.04441407272445</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>15.302218821729152</c:v>
+                  <c:v>15.24060909950693</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>15.369246138476909</c:v>
+                  <c:v>15.306160582921352</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>16</c:v>
+                  <c:v>15.935488888888889</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>14.974543276430069</c:v>
+                  <c:v>14.908607720874514</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>17.009695526450077</c:v>
+                  <c:v>16.942335248672297</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>17.519271198318151</c:v>
+                  <c:v>17.450486476095929</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>16.8449423060726</c:v>
+                  <c:v>16.774731750517045</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>15.369246138476909</c:v>
+                  <c:v>15.297566971810241</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>16.073294221650727</c:v>
+                  <c:v>16.000190332761836</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>15.235773596404357</c:v>
+                  <c:v>15.161244429737689</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>14.600671630895022</c:v>
+                  <c:v>14.524718019783911</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>17.092556191778481</c:v>
+                  <c:v>17.015177858445146</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>16.37331150225133</c:v>
+                  <c:v>16.294508446695772</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>16.8449423060726</c:v>
+                  <c:v>16.764630361628157</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>16.37331150225133</c:v>
+                  <c:v>16.291575113362441</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>16</c:v>
+                  <c:v>15.916839166666666</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>17.785682525566919</c:v>
+                  <c:v>17.701096414455808</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>15.784073869465709</c:v>
+                  <c:v>15.698063313910154</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>16.073294221650727</c:v>
+                  <c:v>15.985814221650728</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>16.764459346186086</c:v>
+                  <c:v>16.675554623963862</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>15.784073869465709</c:v>
+                  <c:v>15.69374386946571</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>15.573898146706123</c:v>
+                  <c:v>15.482143702261677</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>17.432232197332869</c:v>
+                  <c:v>17.33905330844398</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>16.147263038914904</c:v>
+                  <c:v>16.052659705581572</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>19.144251938355509</c:v>
+                  <c:v>19.048174716133286</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>18.060321473722233</c:v>
+                  <c:v>17.962819251500012</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>23.046784973496198</c:v>
+                  <c:v>22.947858029051751</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>27.797081306462822</c:v>
+                  <c:v>27.696728806462822</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>25.565639780135495</c:v>
+                  <c:v>25.463862557913277</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>25.018764073054793</c:v>
+                  <c:v>24.915562406388123</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>22.03128442388191</c:v>
+                  <c:v>21.926614979437467</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>25.753283543651818</c:v>
+                  <c:v>25.647188543651815</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>28.244598220590312</c:v>
+                  <c:v>28.137078776145866</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>30.188679245283019</c:v>
+                  <c:v>30.079735356394128</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>19.464720194647203</c:v>
+                  <c:v>19.354350750202759</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>23.046784973496198</c:v>
+                  <c:v>22.934990806829532</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>24.49479485609308</c:v>
+                  <c:v>24.381530689426413</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>31.831927423205475</c:v>
+                  <c:v>31.717236867649923</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>26.532236667551075</c:v>
+                  <c:v>26.416120556439964</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>32.420165342843248</c:v>
+                  <c:v>32.302624787287691</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>36.469730123997081</c:v>
+                  <c:v>36.350764846219306</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>22.311468094600624</c:v>
+                  <c:v>22.191076983489513</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>31.545741324921135</c:v>
+                  <c:v>31.423871324921134</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>25.018764073054793</c:v>
+                  <c:v>24.895469073054791</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>25.753283543651818</c:v>
+                  <c:v>25.628563821429594</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>18.537399202891834</c:v>
+                  <c:v>18.411253647336277</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>25.565639780135495</c:v>
+                  <c:v>25.438069502357717</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>22.601423889705053</c:v>
+                  <c:v>22.472428889705053</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>20.251113811259618</c:v>
+                  <c:v>20.120662422370732</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>24.841634579555333</c:v>
+                  <c:v>24.709758468444221</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>22.456770716370986</c:v>
+                  <c:v>22.323469883037653</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>18.937600606003219</c:v>
+                  <c:v>18.802875050447664</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>16.450074025333116</c:v>
+                  <c:v>16.313922914222001</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>15.169902912621358</c:v>
+                  <c:v>15.032327357065805</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>16.147263038914904</c:v>
+                  <c:v>16.008210261137126</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>15.104599350502228</c:v>
+                  <c:v>14.964121294946672</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>14.600671630895022</c:v>
+                  <c:v>14.458768853117245</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>16.927634363097756</c:v>
+                  <c:v>16.784306863097754</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>17.876296031462282</c:v>
+                  <c:v>17.731543809240058</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>21.231422505307854</c:v>
+                  <c:v>21.085244449752299</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>16.221915808256956</c:v>
+                  <c:v>16.074264419368067</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>18.060321473722233</c:v>
+                  <c:v>17.911245362611123</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>20.134903855834089</c:v>
+                  <c:v>19.984401911389647</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>19.464720194647203</c:v>
+                  <c:v>19.312793805758311</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>18.735362997658079</c:v>
+                  <c:v>18.582011886546969</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>16.684741803620589</c:v>
+                  <c:v>16.529966248065033</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>16.450074025333116</c:v>
+                  <c:v>16.293831525333115</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>18.248175182481752</c:v>
+                  <c:v>18.090507682481753</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>15.235773596404357</c:v>
+                  <c:v>15.076681374182133</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>19.906439733253709</c:v>
+                  <c:v>19.745921955475932</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>16.684741803620589</c:v>
+                  <c:v>16.522799303620587</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>17.785682525566919</c:v>
+                  <c:v>17.622315303344696</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>19.573302016050107</c:v>
+                  <c:v>19.408454238272331</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>21.758050478677109</c:v>
+                  <c:v>21.591776867565997</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>19.906439733253709</c:v>
+                  <c:v>19.738741677698155</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>17.519271198318151</c:v>
+                  <c:v>17.350148420540371</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>17.176228100309171</c:v>
+                  <c:v>17.005679766975838</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>15.505077913016512</c:v>
+                  <c:v>15.333104857460956</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>18.248175182481752</c:v>
+                  <c:v>18.074746571370643</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>18.439977872026553</c:v>
+                  <c:v>18.26512370535989</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>16.927634363097756</c:v>
+                  <c:v>16.751355474208868</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>17.176228100309171</c:v>
+                  <c:v>16.998524489198061</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>19.357336430507164</c:v>
+                  <c:v>19.17820809717383</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>18.635855385762209</c:v>
+                  <c:v>18.455301496873318</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>19.357336430507164</c:v>
+                  <c:v>19.175313930507162</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>20.607934054611025</c:v>
+                  <c:v>20.424486832388805</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>18.439977872026553</c:v>
+                  <c:v>18.255105094248776</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>23.99232245681382</c:v>
+                  <c:v>23.806024956813818</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>19.040365575019038</c:v>
+                  <c:v>18.852643352796818</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>15.927371187385523</c:v>
+                  <c:v>15.738224520718857</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>21.103724807428513</c:v>
+                  <c:v>20.913102307428513</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>20.607934054611025</c:v>
+                  <c:v>20.415887110166583</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>24.841634579555333</c:v>
+                  <c:v>24.648163190666445</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>20.48760499897562</c:v>
+                  <c:v>20.292708332308951</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>23.19916483006612</c:v>
+                  <c:v>23.00284344117723</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>16.221915808256956</c:v>
+                  <c:v>16.024169697145844</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>22.456770716370986</c:v>
+                  <c:v>22.257554605259877</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>21.623959346956429</c:v>
+                  <c:v>21.423317680289763</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>20.02002002002002</c:v>
+                  <c:v>19.817953631131129</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>19.464720194647203</c:v>
+                  <c:v>19.26122908353609</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>22.170491076377342</c:v>
+                  <c:v>21.965574687488456</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>18.937600606003219</c:v>
+                  <c:v>18.731259772669887</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>20.607934054611025</c:v>
+                  <c:v>20.400100443499912</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>18.34357516279923</c:v>
+                  <c:v>18.13429516279923</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>20.48760499897562</c:v>
+                  <c:v>20.276899443420064</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>19.906439733253709</c:v>
+                  <c:v>19.694309455475931</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>18.060321473722233</c:v>
+                  <c:v>17.846766473722234</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>19.040365575019038</c:v>
+                  <c:v>18.825327797241261</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>20.48760499897562</c:v>
+                  <c:v>20.271142498975617</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>19.464720194647203</c:v>
+                  <c:v>19.246832972424979</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>19.249278152069298</c:v>
+                  <c:v>19.029966207624852</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>18.937600606003219</c:v>
+                  <c:v>18.716862828225441</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>16.37331150225133</c:v>
+                  <c:v>16.15114900225133</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>17.176228100309171</c:v>
+                  <c:v>16.952597544753619</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>19.040365575019038</c:v>
+                  <c:v>18.815309741685706</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>20.134903855834089</c:v>
+                  <c:v>19.908423300278532</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>17.260723224303099</c:v>
+                  <c:v>17.03281794652532</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>17.785682525566919</c:v>
+                  <c:v>17.556352525566918</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>16</c:v>
+                  <c:v>15.769244166666667</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>16.073294221650727</c:v>
+                  <c:v>15.84106505498406</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>15.713387806411061</c:v>
+                  <c:v>15.479733917522173</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>14.540167211922936</c:v>
+                  <c:v>14.305088045256269</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>16.927634363097756</c:v>
+                  <c:v>16.691130474208865</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>16.8449423060726</c:v>
+                  <c:v>16.607013972739267</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>16.764459346186086</c:v>
+                  <c:v>16.525106290630532</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>19.040365575019038</c:v>
+                  <c:v>18.799537519463485</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>17.346053772766695</c:v>
+                  <c:v>17.103800994988919</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>18.153762367250611</c:v>
+                  <c:v>17.91008486725061</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>18.537399202891834</c:v>
+                  <c:v>18.292296425114056</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>17.432232197332869</c:v>
+                  <c:v>17.185704697332866</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>15.104599350502228</c:v>
+                  <c:v>14.856647128280006</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>17.60718373096223</c:v>
+                  <c:v>17.357715119851122</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>17.346053772766695</c:v>
+                  <c:v>17.095159606100029</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>17.092556191778481</c:v>
+                  <c:v>16.840237302889591</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>18.153762367250611</c:v>
+                  <c:v>17.900018756139502</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>20.02002002002002</c:v>
+                  <c:v>19.764843075575573</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>17.60718373096223</c:v>
+                  <c:v>17.350548453184452</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>19.794140934283451</c:v>
+                  <c:v>19.536080934283451</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>17.009695526450077</c:v>
+                  <c:v>16.7502102486723</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>20.02002002002002</c:v>
+                  <c:v>19.759110020020021</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>17.009695526450077</c:v>
+                  <c:v>16.747360804227856</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>22.311468094600624</c:v>
+                  <c:v>22.047708650156181</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>14.910907328710952</c:v>
+                  <c:v>14.645680939822064</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>14.303082314238717</c:v>
+                  <c:v>14.036431203127606</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>13.742870885728028</c:v>
+                  <c:v>13.474795330172473</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>14.600671630895022</c:v>
+                  <c:v>14.331170519783912</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>14.600671630895022</c:v>
+                  <c:v>14.329746075339466</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>14.847809948032667</c:v>
+                  <c:v>14.575459948032666</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>14.420650371331748</c:v>
+                  <c:v>14.146827593553969</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>14.303082314238717</c:v>
+                  <c:v>14.027834258683161</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>15.505077913016512</c:v>
+                  <c:v>15.228405135238734</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>15.169902912621358</c:v>
+                  <c:v>14.891805412621359</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>15.369246138476909</c:v>
+                  <c:v>15.08972336069913</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>16.073294221650727</c:v>
+                  <c:v>15.792346721650727</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>15.927371187385523</c:v>
+                  <c:v>15.644957576274413</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>16</c:v>
+                  <c:v>15.716161666666666</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>15.039855617386074</c:v>
+                  <c:v>14.754592006274963</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>17.009695526450077</c:v>
+                  <c:v>16.723007193116743</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>15.302218821729152</c:v>
+                  <c:v>15.014105766173596</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>15.302218821729152</c:v>
+                  <c:v>15.01268021061804</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>14.78524432616249</c:v>
+                  <c:v>14.494209326162489</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>15.104599350502228</c:v>
+                  <c:v>14.812118794946672</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>15.784073869465709</c:v>
+                  <c:v>15.490168591687931</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>16.37331150225133</c:v>
+                  <c:v>16.077980668917995</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>17.009695526450077</c:v>
+                  <c:v>16.712939970894521</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>16.527559705809438</c:v>
+                  <c:v>16.229339705809437</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>15.169902912621358</c:v>
+                  <c:v>14.870257357065803</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>14.073604953908943</c:v>
+                  <c:v>13.772534676131166</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>15.039855617386074</c:v>
+                  <c:v>14.737360617386075</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>15.302218821729152</c:v>
+                  <c:v>14.998298543951375</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>15.169902912621358</c:v>
+                  <c:v>14.864557912621359</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>13.324450366422386</c:v>
+                  <c:v>13.017634810866831</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>13.742870885728028</c:v>
+                  <c:v>13.43463060795025</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>14.847809948032667</c:v>
+                  <c:v>14.538143836921554</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>15.039855617386074</c:v>
+                  <c:v>14.728764784052741</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>15.713387806411061</c:v>
+                  <c:v>15.400872250855507</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>15.713387806411061</c:v>
+                  <c:v>15.399444750855507</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>14.78524432616249</c:v>
+                  <c:v>14.469831826162489</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>15.643332029722332</c:v>
+                  <c:v>15.326494807500108</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>15.235773596404357</c:v>
+                  <c:v>14.917511651959913</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>17.519271198318151</c:v>
+                  <c:v>17.199583420540375</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>14.540167211922936</c:v>
+                  <c:v>14.219054711922936</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>14.245014245014245</c:v>
+                  <c:v>13.922477022792023</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>14.540167211922936</c:v>
+                  <c:v>14.216156656367382</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>14.847809948032667</c:v>
+                  <c:v>14.522374670254889</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>14.600671630895022</c:v>
+                  <c:v>14.273811630895022</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>14.600671630895022</c:v>
+                  <c:v>14.272386075339467</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>15.505077913016512</c:v>
+                  <c:v>15.175367635238734</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>15.235773596404357</c:v>
+                  <c:v>14.904638596404357</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>16.073294221650727</c:v>
+                  <c:v>15.740661166095171</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>17.260723224303099</c:v>
+                  <c:v>16.926641835414209</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>15.573898146706123</c:v>
+                  <c:v>15.238392313372788</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>14.017381553125876</c:v>
+                  <c:v>13.68045099757032</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>19.794140934283451</c:v>
+                  <c:v>19.455739545394561</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>20.02002002002002</c:v>
+                  <c:v>19.68017613113113</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>15.436863229391788</c:v>
+                  <c:v>15.095594618280677</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>17.260723224303099</c:v>
+                  <c:v>16.918029890969766</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>16.764459346186086</c:v>
+                  <c:v>16.420340457297197</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>13.42642320085929</c:v>
+                  <c:v>13.08087958974818</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>14.420650371331748</c:v>
+                  <c:v>14.073630371331747</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>17.346053772766695</c:v>
+                  <c:v>16.997608217211141</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>14.303082314238717</c:v>
+                  <c:v>13.95321203646094</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>15.169902912621358</c:v>
+                  <c:v>14.818607912621358</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>14.723203769140165</c:v>
+                  <c:v>14.37048432469572</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>14.723203769140165</c:v>
+                  <c:v>14.369058491362386</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>16</c:v>
+                  <c:v>15.644382222222223</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>16</c:v>
+                  <c:v>15.642955555555556</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>15.369246138476909</c:v>
+                  <c:v>15.010776416254686</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>15.235773596404357</c:v>
+                  <c:v>14.875879151959911</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>16.297262059973924</c:v>
+                  <c:v>15.935942893307256</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>15.436863229391788</c:v>
+                  <c:v>15.074118784947343</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>18.537399202891834</c:v>
+                  <c:v>18.173183647336277</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>16.221915808256956</c:v>
+                  <c:v>15.856275530479177</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>16.8449423060726</c:v>
+                  <c:v>16.4778773060726</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>15.643332029722332</c:v>
+                  <c:v>15.274841751944553</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>23.99232245681382</c:v>
+                  <c:v>23.622407456813818</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>17.092556191778481</c:v>
+                  <c:v>16.721147580667367</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>21.758050478677109</c:v>
+                  <c:v>21.385203534232666</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>25.198437696862793</c:v>
+                  <c:v>24.824165752418349</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>20.977554017201594</c:v>
+                  <c:v>20.601857350534925</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>15.369246138476909</c:v>
+                  <c:v>14.992125027365798</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>17.69598301185631</c:v>
+                  <c:v>17.317374678522977</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>17.876296031462282</c:v>
+                  <c:v>17.496262975906728</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>18.248175182481752</c:v>
+                  <c:v>17.866717404703973</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>19.357336430507164</c:v>
+                  <c:v>18.974453097173829</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>17.176228100309171</c:v>
+                  <c:v>16.791919766975838</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>17.009695526450077</c:v>
+                  <c:v>16.623962193116743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14116,7 +14116,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Accel X (m/s^2)</c:v>
+                  <c:v>Accel X (g)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15781,7 +15781,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Accel Y (m/s^2)</c:v>
+                  <c:v>Accel Y  (g)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -17446,7 +17446,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Accel Z (m/s^2)</c:v>
+                  <c:v>Accel Z  (g)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -19269,7 +19269,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Accel (m/s^2)</a:t>
+                  <a:t>Accel (g)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -24894,8 +24894,1673 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rot X (°)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$270</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="269"/>
+                <c:pt idx="0">
+                  <c:v>5543</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20917</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26041</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36292</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41422</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46688</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51816</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56944</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62075</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67319</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72448</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>77576</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82707</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87835</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>92963</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98246</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>103374</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>108502</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>113630</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>118761</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>123889</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>129016</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>134299</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>139430</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>144558</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>149686</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>154814</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>159945</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>165147</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>170275</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>175406</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>180535</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>185664</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>190793</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>196149</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>201278</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>206406</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>211535</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>216667</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>221795</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>227108</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>232240</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>237368</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>242497</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>247625</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>252758</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>258045</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>263174</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>268305</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>273433</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>278562</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>283691</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>289123</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>294251</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>299379</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>304510</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>309638</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>314928</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>320057</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>325188</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>330316</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>335444</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>340572</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>345878</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>351008</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>356137</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>361269</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>366398</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>371526</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>376810</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>381942</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>387070</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>392198</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>397330</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>402459</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>407751</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>412886</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>418018</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>423146</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>428275</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>433408</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>438732</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>443862</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>448991</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>454124</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>459253</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>464382</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>469625</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>474754</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>479883</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>485012</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>490144</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>495272</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>500590</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>505721</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>510850</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>515979</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>521108</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>526241</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>531545</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>536674</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>541807</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>546935</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>552064</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>557192</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>562473</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>567603</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>572732</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>577864</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>582993</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>588122</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>593452</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>598585</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>603713</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>608842</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>613974</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>619103</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>624343</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>629475</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>634604</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>639733</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>644862</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>649994</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>655281</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>660410</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>665542</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>670671</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>675800</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>680928</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>686241</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>691369</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>696497</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>701628</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>706757</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>711886</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>717178</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>722310</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>727439</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>732568</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>737699</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>742827</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>748201</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>753408</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>758540</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>763669</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>768798</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>774136</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>779265</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>784394</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>789523</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>794656</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>799785</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>805070</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>810201</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>815330</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>820459</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>825588</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>830721</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>836025</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>841154</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>846285</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>851414</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>856542</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>861671</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>866981</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>872110</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>877239</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>882370</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>887499</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>892628</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>898087</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>903219</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>908348</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>913477</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>918637</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>923887</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>929016</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>934147</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>939276</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>944405</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>949534</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>954815</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>959944</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>965072</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>970204</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>975332</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>980460</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>985762</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>990893</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>996022</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1001151</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1006282</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1011411</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1016689</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1021818</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1026949</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1032078</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1037207</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1042339</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1047726</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1052930</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1058059</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1063191</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1068320</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1073592</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1078724</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1083853</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1088982</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1094113</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1099242</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1104536</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1109665</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1114798</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1119927</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1125056</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1130195</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1135485</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1140614</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1145743</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1150876</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1156005</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1161134</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1166438</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1171567</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1176696</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1181828</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1186957</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1192086</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1197479</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1202693</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1207821</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1212950</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1218245</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1223438</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1228567</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1233696</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1238828</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1243957</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1249272</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1254404</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1259533</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1264662</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1269790</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1274923</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1280224</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1285360</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1290491</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1295620</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1300749</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1305880</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1311176</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1316305</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1321434</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1326565</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1331694</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1337071</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1342249</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1347379</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1352508</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>1357636</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1362990</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1368119</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1373248</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1378380</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1383510</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1388640</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$270</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="269"/>
+                <c:pt idx="0">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.4900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.4700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.4700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.39</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.62</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.4300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.67</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.46</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.86</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.62</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.77</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.72</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.39</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.67</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.4900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.85</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.62</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.61</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.77</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.56</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.93</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-2.74</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2.44</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.64</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.59</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.63</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.63</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.59</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2.46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2.46</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.38</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.46</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2.89</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-2.44</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2.44</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2.7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2.42</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-2.42</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2.57</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.24</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.21</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.48</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.51</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.92</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.86</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.13</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.52</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.44</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>15.13</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-3.29</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.23</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.34</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.71</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.12</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-4.53</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-7.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-1.43</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.65</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.77</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-10.98</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-8.93</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.47</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.26</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-5.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-4.88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-4.29</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-5.56</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-4.09</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-8.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>13.61</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-2.87</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-9.6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.5099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-4.41</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-10.47</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.74</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>11.12</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.54</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>19.71</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>16.73</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-11.8</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>19.93</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5.77</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>18.05</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>24.67</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>8.15</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>23.97</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>18.09</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>13.02</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>10.17</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>17.829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>9.6199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-1.39</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-2.02</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>20.75</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6.74</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>17.239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>8.31</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-8.42</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-11.73</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-8.56</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-7.1</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-2.31</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>21.41</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3.26</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-6.86</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-1.38</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4.47</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>11.92</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>14.29</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3.44</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-2.86</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7.66</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>16.98</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-0.53</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>13.86</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>5.78</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3.07</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>10.17</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.17</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>8.9700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>12.49</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-9.31</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-2.17</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>12.13</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-17.809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-5.87</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5.23</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>8.69</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>15.95</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-3.7</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>14.35</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-1.86</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4.97</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-0.54</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>5.56</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>10.67</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>9.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>9.19</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-5.67</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>13.02</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>10.43</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2.61</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>20.95</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>10.85</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-6.27</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>18.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2.79</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>6.13</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3.44</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>9.84</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-10.51</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>10.039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-2.82</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-6.09</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-10.08</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-7.65</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-6.84</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-9.84</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-6.87</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-12.15</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-1.57</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-8.67</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-12.36</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-21.58</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-10.79</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-11.28</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-14.24</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-7.49</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-10.51</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-6.22</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-2.78</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-3.73</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-4.99</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-10.26</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-14.88</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-12.6</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-14.69</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>3.21</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-14.7</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-24.23</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-11.93</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-13.49</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-20.85</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-3.92</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-25.54</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>-10.050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>-20.86</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>-16.91</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>-20.54</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>-18.59</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>-18.66</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>-15.83</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>-17.13</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>-17.34</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>-13.53</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>9.5299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-16.13</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>-8.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>-12.07</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>-10.58</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-1.46</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>-13.84</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>-4.68</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>-8.76</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-5.3</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>-3.62</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-1.67</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>-9.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-13.65</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>4.63</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>-12.46</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>-14.68</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>-12.33</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>-2.98</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>-2.0499999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D93C-4650-AA52-6079C6065FF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$O$1</c:f>
@@ -24921,12 +26586,816 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$269</c:f>
+              <c:f>Sheet1!$A$2:$A$270</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="269"/>
                 <c:pt idx="0">
+                  <c:v>5543</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20917</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26041</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36292</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41422</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46688</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51816</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56944</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62075</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67319</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72448</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>77576</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82707</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87835</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>92963</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98246</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>103374</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>108502</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>113630</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>118761</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>123889</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>129016</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>134299</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>139430</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>144558</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>149686</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>154814</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>159945</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>165147</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>170275</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>175406</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>180535</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>185664</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>190793</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>196149</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>201278</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>206406</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>211535</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>216667</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>221795</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>227108</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>232240</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>237368</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>242497</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>247625</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>252758</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>258045</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>263174</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>268305</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>273433</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>278562</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>283691</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>289123</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>294251</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>299379</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>304510</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>309638</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>314928</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>320057</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>325188</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>330316</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>335444</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>340572</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>345878</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>351008</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>356137</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>361269</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>366398</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>371526</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>376810</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>381942</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>387070</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>392198</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>397330</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>402459</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>407751</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>412886</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>418018</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>423146</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>428275</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>433408</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>438732</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>443862</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>448991</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>454124</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>459253</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>464382</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>469625</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>474754</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>479883</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>485012</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>490144</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>495272</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>500590</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>505721</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>510850</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>515979</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>521108</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>526241</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>531545</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>536674</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>541807</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>546935</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>552064</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>557192</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>562473</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>567603</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>572732</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>577864</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>582993</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>588122</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>593452</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>598585</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>603713</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>608842</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>613974</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>619103</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>624343</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>629475</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>634604</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>639733</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>644862</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>649994</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>655281</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>660410</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>665542</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>670671</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>675800</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>680928</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>686241</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>691369</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>696497</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>701628</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>706757</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>711886</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>717178</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>722310</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>727439</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>732568</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>737699</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>742827</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>748201</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>753408</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>758540</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>763669</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>768798</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>774136</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>779265</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>784394</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>789523</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>794656</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>799785</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>805070</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>810201</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>815330</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>820459</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>825588</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>830721</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>836025</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>841154</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>846285</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>851414</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>856542</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>861671</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>866981</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>872110</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>877239</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>882370</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>887499</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>892628</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>898087</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>903219</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>908348</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>913477</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>918637</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>923887</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>929016</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>934147</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>939276</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>944405</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>949534</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>954815</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>959944</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>965072</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>970204</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>975332</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>980460</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>985762</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>990893</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>996022</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1001151</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1006282</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1011411</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1016689</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1021818</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1026949</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1032078</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1037207</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1042339</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1047726</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1052930</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1058059</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1063191</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1068320</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1073592</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1078724</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1083853</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1088982</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1094113</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1099242</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1104536</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1109665</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1114798</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1119927</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1125056</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1130195</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1135485</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1140614</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1145743</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1150876</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1156005</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1161134</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1166438</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1171567</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1176696</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1181828</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1186957</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1192086</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1197479</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1202693</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1207821</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1212950</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1218245</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1223438</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1228567</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1233696</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1238828</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1243957</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1249272</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1254404</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1259533</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1264662</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1269790</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1274923</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1280224</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1285360</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1290491</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1295620</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1300749</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1305880</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1311176</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1316305</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1321434</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1326565</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1331694</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1337071</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1342249</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1347379</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1352508</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>1357636</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1362990</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1368119</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1373248</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1378380</c:v>
+                </c:pt>
+                <c:pt idx="267">
                   <c:v>1383510</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1388640</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25751,867 +28220,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D93C-4650-AA52-6079C6065FF8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rot X (°)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$269</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1383510</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$N$2:$N$270</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="269"/>
-                <c:pt idx="0">
-                  <c:v>-5.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.89</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.4900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.59</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2.4500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2.4700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-2.37</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-2.61</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2.4700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-2.39</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2.57</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2.62</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-2.4300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2.67</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-2.46</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-2.64</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-2.5499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-2.64</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-2.86</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-2.62</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-2.4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-2.77</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-2.72</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-3.39</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-2.67</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-2.4900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-2.85</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-2.6</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-2.62</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-2.61</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-2.77</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-2.56</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-1.93</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-2.74</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-2.44</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-2.64</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-2.59</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-2.63</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-2.63</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-2.59</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-2.46</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-2.46</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-2.38</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-2.46</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-2.89</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-2.44</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-2.44</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-2.48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-2.7</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-2.42</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-2.42</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-2.57</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3.24</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3.21</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>3.48</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3.27</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>3.51</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.73</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2.92</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2.86</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3.32</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3.52</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3.27</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>3.44</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>15.13</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-3.29</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>5.23</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>8.34</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>3.71</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>3.12</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>13.25</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-4.53</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-7.77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-1.43</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-0.65</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.77</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-10.98</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-8.93</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>7.47</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-0.26</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-5.1100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-4.88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-4.29</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-5.56</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-4.09</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-8.9600000000000009</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>13.61</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-2.87</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-9.6</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2.5099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-4.41</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-10.47</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>5.74</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>11.12</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>6.54</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>19.71</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>16.73</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>21.4</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>18.3</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>-11.8</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>19.93</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>3.01</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>5.77</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>18.05</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>24.67</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>8.15</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>23.97</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>9.2100000000000009</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>18.09</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>13.02</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>10.17</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>17.829999999999998</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>9.6199999999999992</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>-1.39</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>-2.02</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>-0.6</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>20.75</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>6.74</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>17.239999999999998</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>8.31</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>-8.42</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>1.54</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>-11.73</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>-8.56</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>-7.1</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>-2.31</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>21.41</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>3.26</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>1.49</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>-6.86</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>-1.38</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>4.47</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>-0.4</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>11.92</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>14.29</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>3.44</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>-2.86</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>7.66</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>16.98</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>-0.53</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>13.86</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>5.78</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>3.07</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>10.17</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>-2.5499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>2.17</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>8.9700000000000006</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>12.49</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>-9.31</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>-2.17</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>2.58</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>12.13</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>-1.0900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>-17.809999999999999</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>-5.87</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>5.23</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>8.69</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>15.95</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>-3.7</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>14.35</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>-1.86</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>4.97</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>-0.54</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>5.56</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>10.67</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>9.4499999999999993</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>9.19</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>14.4</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>-5.67</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>13.02</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>10.43</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>2.61</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>20.95</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>10.85</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>3.66</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>-6.27</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>18.670000000000002</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>2.79</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>6.13</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>3.44</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>9.84</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>-10.51</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>10.039999999999999</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>1.31</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>-2.82</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>-6.09</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>-10.08</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>-7.65</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>-6.84</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>-9.84</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>-6.87</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>-12.15</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>-1.57</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>-8.67</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>-12.36</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>-21.58</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>-10.79</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>-2.1800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>-11.28</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>-14.24</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>-7.49</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>-10.51</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>-6.22</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>-2.78</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>-3.73</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>-4.99</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>-10.26</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>-14.88</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>-12.6</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>-14.69</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>3.21</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>-14.7</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>-24.23</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>-11.93</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>-13.49</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>-20.85</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>-3.92</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>-25.54</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>-10.050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>-20.86</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>-16.91</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>-20.54</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>-18.59</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>-18.66</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>-15.83</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>-17.13</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>-17.34</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>-13.53</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>9.5299999999999994</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>2.27</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>-16.13</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>-8.5399999999999991</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>-12.07</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>-10.58</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>-1.46</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>-13.84</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>0.91</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>-4.68</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>-5.5</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>3.81</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>-8.76</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>-5.3</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>-3.62</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>-1.67</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>-9.2799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>-13.65</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>4.63</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>-12.46</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>-14.68</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>-12.33</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>-2.98</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>-2.0499999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D93C-4650-AA52-6079C6065FF8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -28905,6 +30513,2002 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Battery Current (mA)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$270</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="269"/>
+                <c:pt idx="0">
+                  <c:v>5543</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20917</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26041</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36292</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41422</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46688</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51816</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56944</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62075</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67319</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72448</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>77576</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82707</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87835</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>92963</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98246</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>103374</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>108502</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>113630</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>118761</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>123889</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>129016</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>134299</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>139430</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>144558</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>149686</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>154814</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>159945</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>165147</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>170275</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>175406</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>180535</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>185664</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>190793</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>196149</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>201278</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>206406</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>211535</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>216667</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>221795</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>227108</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>232240</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>237368</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>242497</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>247625</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>252758</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>258045</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>263174</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>268305</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>273433</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>278562</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>283691</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>289123</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>294251</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>299379</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>304510</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>309638</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>314928</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>320057</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>325188</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>330316</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>335444</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>340572</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>345878</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>351008</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>356137</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>361269</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>366398</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>371526</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>376810</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>381942</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>387070</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>392198</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>397330</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>402459</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>407751</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>412886</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>418018</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>423146</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>428275</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>433408</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>438732</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>443862</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>448991</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>454124</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>459253</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>464382</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>469625</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>474754</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>479883</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>485012</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>490144</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>495272</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>500590</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>505721</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>510850</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>515979</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>521108</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>526241</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>531545</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>536674</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>541807</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>546935</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>552064</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>557192</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>562473</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>567603</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>572732</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>577864</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>582993</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>588122</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>593452</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>598585</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>603713</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>608842</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>613974</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>619103</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>624343</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>629475</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>634604</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>639733</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>644862</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>649994</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>655281</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>660410</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>665542</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>670671</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>675800</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>680928</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>686241</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>691369</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>696497</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>701628</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>706757</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>711886</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>717178</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>722310</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>727439</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>732568</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>737699</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>742827</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>748201</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>753408</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>758540</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>763669</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>768798</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>774136</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>779265</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>784394</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>789523</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>794656</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>799785</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>805070</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>810201</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>815330</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>820459</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>825588</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>830721</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>836025</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>841154</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>846285</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>851414</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>856542</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>861671</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>866981</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>872110</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>877239</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>882370</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>887499</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>892628</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>898087</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>903219</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>908348</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>913477</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>918637</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>923887</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>929016</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>934147</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>939276</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>944405</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>949534</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>954815</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>959944</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>965072</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>970204</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>975332</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>980460</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>985762</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>990893</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>996022</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1001151</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1006282</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1011411</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1016689</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1021818</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1026949</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1032078</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1037207</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1042339</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1047726</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1052930</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1058059</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1063191</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1068320</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1073592</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1078724</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1083853</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1088982</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1094113</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1099242</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1104536</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1109665</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1114798</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1119927</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1125056</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1130195</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1135485</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1140614</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1145743</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1150876</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1156005</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1161134</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1166438</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1171567</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1176696</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1181828</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1186957</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1192086</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1197479</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1202693</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1207821</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1212950</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1218245</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1223438</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1228567</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1233696</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1238828</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1243957</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1249272</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1254404</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1259533</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1264662</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1269790</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1274923</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1280224</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1285360</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1290491</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1295620</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1300749</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1305880</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1311176</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1316305</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1321434</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1326565</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1331694</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1337071</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1342249</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1347379</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1352508</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>1357636</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1362990</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1368119</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1373248</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1378380</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1383510</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1388640</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$2:$W$270</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="269"/>
+                <c:pt idx="0">
+                  <c:v>139.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121.58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>119.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>117.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>122.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>137.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>121.58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123.29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>117.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>122.72</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>134.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>121.01</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>128.41999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>126.14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>121.58</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>121.58</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>119.87</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>126.14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>119.87</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>123.29</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>114.16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120.44</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>109.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>124.43</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>123.29</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>110.17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>114.16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>121.01</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>122.15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>118.73</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>124.43</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>127.28</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>126.14</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>113.02</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>126.71</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>123.29</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>115.87</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>123.86</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>122.15</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>132.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>130.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>130.13</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>133.56</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>117.58</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>114.16</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>118.73</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>130.13</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>124.43</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>131.27000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>136.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>117.01</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>122.15</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>118.73</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>122.15</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>112.45</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>126.71</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>124.43</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>119.3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>126.71</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>128.41999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>114.73</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>123.86</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>104.47</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>110.74</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>86.78</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71.95</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>78.23</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>79.94</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>90.78</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>77.66</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>70.81</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>66.25</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>102.75</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>86.78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>81.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>62.83</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>75.38</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>61.69</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>54.84</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>89.64</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>63.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>79.94</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>77.66</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>107.89</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>78.23</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>88.49</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>98.76</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>80.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>89.06</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>105.61</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>121.58</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>131.84</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>123.86</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>132.41</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>136.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>118.15</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>111.88</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>94.2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>123.29</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>110.74</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>99.33</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>102.75</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106.75</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>119.87</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>121.58</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109.6</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>131.27000000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>100.47</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>119.87</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>112.45</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>102.18</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>91.92</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>100.47</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>114.16</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>116.44</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>128.99</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>109.6</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>108.46</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>118.15</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>116.44</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>103.32</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>107.32</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>103.32</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>97.05</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>108.46</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>83.36</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>105.04</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>125.57</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>94.77</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>97.05</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>80.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>97.62</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>86.21</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>123.29</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>89.06</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>92.49</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>99.9</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>102.75</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>90.21</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>105.61</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>97.05</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>109.03</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>97.62</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>100.47</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>110.74</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>105.04</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>97.62</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>102.75</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>103.9</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>105.61</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>122.15</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>116.44</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>105.04</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>99.33</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>115.87</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>112.45</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>124.43</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>127.28</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>137.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>118.15</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>118.73</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>119.3</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>105.04</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>115.3</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>110.17</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>107.89</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>114.73</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>132.41</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>113.59</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>115.3</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>117.01</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>110.17</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>99.9</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>113.59</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>101.04</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>117.58</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>99.9</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>117.58</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>89.64</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>134.13</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>139.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>145.53</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>136.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>136.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>134.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>138.69</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>139.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>128.99</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>131.84</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>130.13</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>124.43</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>125.57</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>132.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>117.58</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>130.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>130.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>135.27000000000001</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>132.41</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>126.71</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>122.15</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>117.58</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>121.01</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>131.84</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>142.11000000000001</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>132.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>130.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>131.84</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>150.1</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>145.53</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>134.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>132.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>127.28</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>127.28</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>135.27000000000001</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>127.85</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>131.27000000000001</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>114.16</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>137.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>140.4</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>137.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>134.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>136.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>136.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>128.99</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>131.27000000000001</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>124.43</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>115.87</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>128.41999999999999</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>142.68</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>101.04</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>99.9</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>129.56</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>115.87</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>119.3</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>148.96</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>138.69</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>115.3</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>139.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>131.84</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>135.84</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>135.84</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>130.13</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>131.27000000000001</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>122.72</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>129.56</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>107.89</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>123.29</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>118.73</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>127.85</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>83.36</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>117.01</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>91.92</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>79.37</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>95.34</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>130.13</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>113.02</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>111.88</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>109.6</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>103.32</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>116.44</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>117.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-774F-460F-8FCD-26B663A56722}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="784646000"/>
+        <c:axId val="875162048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="784646000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="875162048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="875162048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Current (mA)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="784646000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -29186,6 +32790,46 @@
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -33353,6 +36997,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -33646,6 +37806,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>89958</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>150283</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC9AA167-DE0B-45A4-9E3E-36840432B41B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -33953,7 +38151,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X280"/>
   <sheetViews>
-    <sheetView zoomScale="58" workbookViewId="0"/>
+    <sheetView zoomScale="61" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -53666,9 +57866,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="72" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF3" sqref="AF3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="72" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -53695,13 +57895,13 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -53737,26 +57937,26 @@
         <v>16</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="Y1" s="2"/>
       <c r="Z1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>13</v>
@@ -53827,8 +58027,8 @@
         <v>2000</v>
       </c>
       <c r="AA2">
-        <f>2000/W2</f>
-        <v>14.303082314238717</v>
+        <f>(2000-W2*(A2/3600000))/W2</f>
+        <v>14.301542592016494</v>
       </c>
       <c r="AB2">
         <f>IF(P2&lt;0,360+P2,P2)</f>
@@ -53894,8 +58094,8 @@
         <v>22.16</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA66" si="0">2000/W3</f>
-        <v>16.450074025333116</v>
+        <f t="shared" ref="AA3:AA66" si="0">(2000-W3*(A3/3600000))/W3</f>
+        <v>16.447110969777558</v>
       </c>
       <c r="AB3">
         <f t="shared" ref="AB3:AB66" si="1">IF(P3&lt;0,360+P3,P3)</f>
@@ -53962,7 +58162,7 @@
       </c>
       <c r="AA4">
         <f t="shared" si="0"/>
-        <v>16.764459346186086</v>
+        <v>16.760072401741642</v>
       </c>
       <c r="AB4">
         <f t="shared" si="1"/>
@@ -54029,7 +58229,7 @@
       </c>
       <c r="AA5">
         <f t="shared" si="0"/>
-        <v>17.260723224303099</v>
+        <v>17.254912946525319</v>
       </c>
       <c r="AB5">
         <f t="shared" si="1"/>
@@ -54096,7 +58296,7 @@
       </c>
       <c r="AA6">
         <f t="shared" si="0"/>
-        <v>17.092556191778481</v>
+        <v>17.08532258066737</v>
       </c>
       <c r="AB6">
         <f t="shared" si="1"/>
@@ -54175,7 +58375,7 @@
       </c>
       <c r="AA7">
         <f t="shared" si="0"/>
-        <v>16.297262059973924</v>
+        <v>16.288605115529482</v>
       </c>
       <c r="AB7">
         <f t="shared" si="1"/>
@@ -54254,7 +58454,7 @@
       </c>
       <c r="AA8">
         <f t="shared" si="0"/>
-        <v>17.785682525566919</v>
+        <v>17.775601414455807</v>
       </c>
       <c r="AB8">
         <f t="shared" si="1"/>
@@ -54333,7 +58533,7 @@
       </c>
       <c r="AA9">
         <f t="shared" si="0"/>
-        <v>14.540167211922936</v>
+        <v>14.528661100811824</v>
       </c>
       <c r="AB9">
         <f t="shared" si="1"/>
@@ -54412,7 +58612,7 @@
       </c>
       <c r="AA10">
         <f t="shared" si="0"/>
-        <v>16.450074025333116</v>
+        <v>16.437105136444227</v>
       </c>
       <c r="AB10">
         <f t="shared" si="1"/>
@@ -54491,7 +58691,7 @@
       </c>
       <c r="AA11">
         <f t="shared" si="0"/>
-        <v>16.221915808256956</v>
+        <v>16.207522474923621</v>
       </c>
       <c r="AB11">
         <f t="shared" si="1"/>
@@ -54570,7 +58770,7 @@
       </c>
       <c r="AA12">
         <f t="shared" si="0"/>
-        <v>17.009695526450077</v>
+        <v>16.9938777486723</v>
       </c>
       <c r="AB12">
         <f t="shared" si="1"/>
@@ -54649,7 +58849,7 @@
       </c>
       <c r="AA13">
         <f t="shared" si="0"/>
-        <v>16.297262059973924</v>
+        <v>16.280019004418371</v>
       </c>
       <c r="AB13">
         <f t="shared" si="1"/>
@@ -54728,7 +58928,7 @@
       </c>
       <c r="AA14">
         <f t="shared" si="0"/>
-        <v>14.910907328710952</v>
+        <v>14.89220760648873</v>
       </c>
       <c r="AB14">
         <f t="shared" si="1"/>
@@ -54807,7 +59007,7 @@
       </c>
       <c r="AA15">
         <f t="shared" si="0"/>
-        <v>16.527559705809438</v>
+        <v>16.507435261364993</v>
       </c>
       <c r="AB15">
         <f t="shared" si="1"/>
@@ -54886,7 +59086,7 @@
       </c>
       <c r="AA16">
         <f t="shared" si="0"/>
-        <v>15.573898146706123</v>
+        <v>15.552349257817234</v>
       </c>
       <c r="AB16">
         <f t="shared" si="1"/>
@@ -54965,7 +59165,7 @@
       </c>
       <c r="AA17">
         <f t="shared" si="0"/>
-        <v>15.855398763278897</v>
+        <v>15.832424596612229</v>
       </c>
       <c r="AB17">
         <f t="shared" si="1"/>
@@ -55044,7 +59244,7 @@
       </c>
       <c r="AA18">
         <f t="shared" si="0"/>
-        <v>16.450074025333116</v>
+        <v>16.425675414222003</v>
       </c>
       <c r="AB18">
         <f t="shared" si="1"/>
@@ -55123,7 +59323,7 @@
       </c>
       <c r="AA19">
         <f t="shared" si="0"/>
-        <v>16.450074025333116</v>
+        <v>16.42425096977756</v>
       </c>
       <c r="AB19">
         <f t="shared" si="1"/>
@@ -55202,7 +59402,7 @@
       </c>
       <c r="AA20">
         <f t="shared" si="0"/>
-        <v>16.684741803620589</v>
+        <v>16.657451248065033</v>
       </c>
       <c r="AB20">
         <f t="shared" si="1"/>
@@ -55281,7 +59481,7 @@
       </c>
       <c r="AA21">
         <f t="shared" si="0"/>
-        <v>15.855398763278897</v>
+        <v>15.826683763278895</v>
       </c>
       <c r="AB21">
         <f t="shared" si="1"/>
@@ -55360,7 +59560,7 @@
       </c>
       <c r="AA22">
         <f t="shared" si="0"/>
-        <v>16.684741803620589</v>
+        <v>16.654602359176145</v>
       </c>
       <c r="AB22">
         <f t="shared" si="1"/>
@@ -55439,7 +59639,7 @@
       </c>
       <c r="AA23">
         <f t="shared" si="0"/>
-        <v>16.221915808256956</v>
+        <v>16.190351919368066</v>
       </c>
       <c r="AB23">
         <f t="shared" si="1"/>
@@ -55518,7 +59718,7 @@
       </c>
       <c r="AA24">
         <f t="shared" si="0"/>
-        <v>17.519271198318151</v>
+        <v>17.486282031651484</v>
       </c>
       <c r="AB24">
         <f t="shared" si="1"/>
@@ -55597,7 +59797,7 @@
       </c>
       <c r="AA25">
         <f t="shared" si="0"/>
-        <v>16.605778811026237</v>
+        <v>16.571365199915128</v>
       </c>
       <c r="AB25">
         <f t="shared" si="1"/>
@@ -55676,7 +59876,7 @@
       </c>
       <c r="AA26">
         <f t="shared" si="0"/>
-        <v>18.248175182481752</v>
+        <v>18.212337404703973</v>
       </c>
       <c r="AB26">
         <f t="shared" si="1"/>
@@ -55755,7 +59955,7 @@
       </c>
       <c r="AA27">
         <f t="shared" si="0"/>
-        <v>16.073294221650727</v>
+        <v>16.035988943872947</v>
       </c>
       <c r="AB27">
         <f t="shared" si="1"/>
@@ -55834,7 +60034,7 @@
       </c>
       <c r="AA28">
         <f t="shared" si="0"/>
-        <v>16.221915808256956</v>
+        <v>16.183185252701399</v>
       </c>
       <c r="AB28">
         <f t="shared" si="1"/>
@@ -55913,7 +60113,7 @@
       </c>
       <c r="AA29">
         <f t="shared" si="0"/>
-        <v>18.153762367250611</v>
+        <v>18.113607367250612</v>
       </c>
       <c r="AB29">
         <f t="shared" si="1"/>
@@ -55992,7 +60192,7 @@
       </c>
       <c r="AA30">
         <f t="shared" si="0"/>
-        <v>17.519271198318151</v>
+        <v>17.477691753873707</v>
       </c>
       <c r="AB30">
         <f t="shared" si="1"/>
@@ -56071,7 +60271,7 @@
       </c>
       <c r="AA31">
         <f t="shared" si="0"/>
-        <v>16.527559705809438</v>
+        <v>16.484555816920547</v>
       </c>
       <c r="AB31">
         <f t="shared" si="1"/>
@@ -56150,7 +60350,7 @@
       </c>
       <c r="AA32">
         <f t="shared" si="0"/>
-        <v>16.37331150225133</v>
+        <v>16.328882335584662</v>
       </c>
       <c r="AB32">
         <f t="shared" si="1"/>
@@ -56229,7 +60429,7 @@
       </c>
       <c r="AA33">
         <f t="shared" si="0"/>
-        <v>16.8449423060726</v>
+        <v>16.799068139405932</v>
       </c>
       <c r="AB33">
         <f t="shared" si="1"/>
@@ -56308,7 +60508,7 @@
       </c>
       <c r="AA34">
         <f t="shared" si="0"/>
-        <v>16.073294221650727</v>
+        <v>16.025995610539614</v>
       </c>
       <c r="AB34">
         <f t="shared" si="1"/>
@@ -56387,7 +60587,7 @@
       </c>
       <c r="AA35">
         <f t="shared" si="0"/>
-        <v>15.713387806411061</v>
+        <v>15.664663917522173</v>
       </c>
       <c r="AB35">
         <f t="shared" si="1"/>
@@ -56466,7 +60666,7 @@
       </c>
       <c r="AA36">
         <f t="shared" si="0"/>
-        <v>15.855398763278897</v>
+        <v>15.805250152167787</v>
       </c>
       <c r="AB36">
         <f t="shared" si="1"/>
@@ -56545,7 +60745,7 @@
       </c>
       <c r="AA37">
         <f t="shared" si="0"/>
-        <v>17.69598301185631</v>
+        <v>17.644409678522976</v>
       </c>
       <c r="AB37">
         <f t="shared" si="1"/>
@@ -56624,7 +60824,7 @@
       </c>
       <c r="AA38">
         <f t="shared" si="0"/>
-        <v>15.784073869465709</v>
+        <v>15.731075813910154</v>
       </c>
       <c r="AB38">
         <f t="shared" si="1"/>
@@ -56703,7 +60903,7 @@
       </c>
       <c r="AA39">
         <f t="shared" si="0"/>
-        <v>16.221915808256956</v>
+        <v>16.167429974923621</v>
       </c>
       <c r="AB39">
         <f t="shared" si="1"/>
@@ -56782,7 +60982,7 @@
       </c>
       <c r="AA40">
         <f t="shared" si="0"/>
-        <v>17.260723224303099</v>
+        <v>17.204812668747543</v>
       </c>
       <c r="AB40">
         <f t="shared" si="1"/>
@@ -56861,7 +61061,7 @@
       </c>
       <c r="AA41">
         <f t="shared" si="0"/>
-        <v>16.147263038914904</v>
+        <v>16.089928038914906</v>
       </c>
       <c r="AB41">
         <f t="shared" si="1"/>
@@ -56940,7 +61140,7 @@
       </c>
       <c r="AA42">
         <f t="shared" si="0"/>
-        <v>16.37331150225133</v>
+        <v>16.314551780029106</v>
       </c>
       <c r="AB42">
         <f t="shared" si="1"/>
@@ -57019,7 +61219,7 @@
       </c>
       <c r="AA43">
         <f t="shared" si="0"/>
-        <v>15.104599350502228</v>
+        <v>15.04441407272445</v>
       </c>
       <c r="AB43">
         <f t="shared" si="1"/>
@@ -57098,7 +61298,7 @@
       </c>
       <c r="AA44">
         <f t="shared" si="0"/>
-        <v>15.302218821729152</v>
+        <v>15.24060909950693</v>
       </c>
       <c r="AB44">
         <f t="shared" si="1"/>
@@ -57177,7 +61377,7 @@
       </c>
       <c r="AA45">
         <f t="shared" si="0"/>
-        <v>15.369246138476909</v>
+        <v>15.306160582921352</v>
       </c>
       <c r="AB45">
         <f t="shared" si="1"/>
@@ -57256,7 +61456,7 @@
       </c>
       <c r="AA46">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15.935488888888889</v>
       </c>
       <c r="AB46">
         <f t="shared" si="1"/>
@@ -57335,7 +61535,7 @@
       </c>
       <c r="AA47">
         <f t="shared" si="0"/>
-        <v>14.974543276430069</v>
+        <v>14.908607720874514</v>
       </c>
       <c r="AB47">
         <f t="shared" si="1"/>
@@ -57414,7 +61614,7 @@
       </c>
       <c r="AA48">
         <f t="shared" si="0"/>
-        <v>17.009695526450077</v>
+        <v>16.942335248672297</v>
       </c>
       <c r="AB48">
         <f t="shared" si="1"/>
@@ -57493,7 +61693,7 @@
       </c>
       <c r="AA49">
         <f t="shared" si="0"/>
-        <v>17.519271198318151</v>
+        <v>17.450486476095929</v>
       </c>
       <c r="AB49">
         <f t="shared" si="1"/>
@@ -57572,7 +61772,7 @@
       </c>
       <c r="AA50">
         <f t="shared" si="0"/>
-        <v>16.8449423060726</v>
+        <v>16.774731750517045</v>
       </c>
       <c r="AB50">
         <f t="shared" si="1"/>
@@ -57651,7 +61851,7 @@
       </c>
       <c r="AA51">
         <f t="shared" si="0"/>
-        <v>15.369246138476909</v>
+        <v>15.297566971810241</v>
       </c>
       <c r="AB51">
         <f t="shared" si="1"/>
@@ -57730,7 +61930,7 @@
       </c>
       <c r="AA52">
         <f t="shared" si="0"/>
-        <v>16.073294221650727</v>
+        <v>16.000190332761836</v>
       </c>
       <c r="AB52">
         <f t="shared" si="1"/>
@@ -57809,7 +62009,7 @@
       </c>
       <c r="AA53">
         <f t="shared" si="0"/>
-        <v>15.235773596404357</v>
+        <v>15.161244429737689</v>
       </c>
       <c r="AB53">
         <f t="shared" si="1"/>
@@ -57888,7 +62088,7 @@
       </c>
       <c r="AA54">
         <f t="shared" si="0"/>
-        <v>14.600671630895022</v>
+        <v>14.524718019783911</v>
       </c>
       <c r="AB54">
         <f t="shared" si="1"/>
@@ -57967,7 +62167,7 @@
       </c>
       <c r="AA55">
         <f t="shared" si="0"/>
-        <v>17.092556191778481</v>
+        <v>17.015177858445146</v>
       </c>
       <c r="AB55">
         <f t="shared" si="1"/>
@@ -58046,7 +62246,7 @@
       </c>
       <c r="AA56">
         <f t="shared" si="0"/>
-        <v>16.37331150225133</v>
+        <v>16.294508446695772</v>
       </c>
       <c r="AB56">
         <f t="shared" si="1"/>
@@ -58125,7 +62325,7 @@
       </c>
       <c r="AA57">
         <f t="shared" si="0"/>
-        <v>16.8449423060726</v>
+        <v>16.764630361628157</v>
       </c>
       <c r="AB57">
         <f t="shared" si="1"/>
@@ -58204,7 +62404,7 @@
       </c>
       <c r="AA58">
         <f t="shared" si="0"/>
-        <v>16.37331150225133</v>
+        <v>16.291575113362441</v>
       </c>
       <c r="AB58">
         <f t="shared" si="1"/>
@@ -58283,7 +62483,7 @@
       </c>
       <c r="AA59">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15.916839166666666</v>
       </c>
       <c r="AB59">
         <f t="shared" si="1"/>
@@ -58362,7 +62562,7 @@
       </c>
       <c r="AA60">
         <f t="shared" si="0"/>
-        <v>17.785682525566919</v>
+        <v>17.701096414455808</v>
       </c>
       <c r="AB60">
         <f t="shared" si="1"/>
@@ -58441,7 +62641,7 @@
       </c>
       <c r="AA61">
         <f t="shared" si="0"/>
-        <v>15.784073869465709</v>
+        <v>15.698063313910154</v>
       </c>
       <c r="AB61">
         <f t="shared" si="1"/>
@@ -58520,7 +62720,7 @@
       </c>
       <c r="AA62">
         <f t="shared" si="0"/>
-        <v>16.073294221650727</v>
+        <v>15.985814221650728</v>
       </c>
       <c r="AB62">
         <f t="shared" si="1"/>
@@ -58599,7 +62799,7 @@
       </c>
       <c r="AA63">
         <f t="shared" si="0"/>
-        <v>16.764459346186086</v>
+        <v>16.675554623963862</v>
       </c>
       <c r="AB63">
         <f t="shared" si="1"/>
@@ -58678,7 +62878,7 @@
       </c>
       <c r="AA64">
         <f t="shared" si="0"/>
-        <v>15.784073869465709</v>
+        <v>15.69374386946571</v>
       </c>
       <c r="AB64">
         <f t="shared" si="1"/>
@@ -58757,7 +62957,7 @@
       </c>
       <c r="AA65">
         <f t="shared" si="0"/>
-        <v>15.573898146706123</v>
+        <v>15.482143702261677</v>
       </c>
       <c r="AB65">
         <f t="shared" si="1"/>
@@ -58836,7 +63036,7 @@
       </c>
       <c r="AA66">
         <f t="shared" si="0"/>
-        <v>17.432232197332869</v>
+        <v>17.33905330844398</v>
       </c>
       <c r="AB66">
         <f t="shared" si="1"/>
@@ -58914,8 +63114,8 @@
         <v>19.399999999999999</v>
       </c>
       <c r="AA67">
-        <f t="shared" ref="AA67:AA130" si="2">2000/W67</f>
-        <v>16.147263038914904</v>
+        <f t="shared" ref="AA67:AA130" si="2">(2000-W67*(A67/3600000))/W67</f>
+        <v>16.052659705581572</v>
       </c>
       <c r="AB67">
         <f t="shared" ref="AB67:AB130" si="3">IF(P67&lt;0,360+P67,P67)</f>
@@ -58994,7 +63194,7 @@
       </c>
       <c r="AA68">
         <f t="shared" si="2"/>
-        <v>19.144251938355509</v>
+        <v>19.048174716133286</v>
       </c>
       <c r="AB68">
         <f t="shared" si="3"/>
@@ -59073,7 +63273,7 @@
       </c>
       <c r="AA69">
         <f t="shared" si="2"/>
-        <v>18.060321473722233</v>
+        <v>17.962819251500012</v>
       </c>
       <c r="AB69">
         <f t="shared" si="3"/>
@@ -59152,7 +63352,7 @@
       </c>
       <c r="AA70">
         <f t="shared" si="2"/>
-        <v>23.046784973496198</v>
+        <v>22.947858029051751</v>
       </c>
       <c r="AB70">
         <f t="shared" si="3"/>
@@ -59231,7 +63431,7 @@
       </c>
       <c r="AA71">
         <f t="shared" si="2"/>
-        <v>27.797081306462822</v>
+        <v>27.696728806462822</v>
       </c>
       <c r="AB71">
         <f t="shared" si="3"/>
@@ -59310,7 +63510,7 @@
       </c>
       <c r="AA72">
         <f t="shared" si="2"/>
-        <v>25.565639780135495</v>
+        <v>25.463862557913277</v>
       </c>
       <c r="AB72">
         <f t="shared" si="3"/>
@@ -59389,7 +63589,7 @@
       </c>
       <c r="AA73">
         <f t="shared" si="2"/>
-        <v>25.018764073054793</v>
+        <v>24.915562406388123</v>
       </c>
       <c r="AB73">
         <f t="shared" si="3"/>
@@ -59468,7 +63668,7 @@
       </c>
       <c r="AA74">
         <f t="shared" si="2"/>
-        <v>22.03128442388191</v>
+        <v>21.926614979437467</v>
       </c>
       <c r="AB74">
         <f t="shared" si="3"/>
@@ -59547,7 +63747,7 @@
       </c>
       <c r="AA75">
         <f t="shared" si="2"/>
-        <v>25.753283543651818</v>
+        <v>25.647188543651815</v>
       </c>
       <c r="AB75">
         <f t="shared" si="3"/>
@@ -59626,7 +63826,7 @@
       </c>
       <c r="AA76">
         <f t="shared" si="2"/>
-        <v>28.244598220590312</v>
+        <v>28.137078776145866</v>
       </c>
       <c r="AB76">
         <f t="shared" si="3"/>
@@ -59705,7 +63905,7 @@
       </c>
       <c r="AA77">
         <f t="shared" si="2"/>
-        <v>30.188679245283019</v>
+        <v>30.079735356394128</v>
       </c>
       <c r="AB77">
         <f t="shared" si="3"/>
@@ -59784,7 +63984,7 @@
       </c>
       <c r="AA78">
         <f t="shared" si="2"/>
-        <v>19.464720194647203</v>
+        <v>19.354350750202759</v>
       </c>
       <c r="AB78">
         <f t="shared" si="3"/>
@@ -59863,7 +64063,7 @@
       </c>
       <c r="AA79">
         <f t="shared" si="2"/>
-        <v>23.046784973496198</v>
+        <v>22.934990806829532</v>
       </c>
       <c r="AB79">
         <f t="shared" si="3"/>
@@ -59942,7 +64142,7 @@
       </c>
       <c r="AA80">
         <f t="shared" si="2"/>
-        <v>24.49479485609308</v>
+        <v>24.381530689426413</v>
       </c>
       <c r="AB80">
         <f t="shared" si="3"/>
@@ -60021,7 +64221,7 @@
       </c>
       <c r="AA81">
         <f t="shared" si="2"/>
-        <v>31.831927423205475</v>
+        <v>31.717236867649923</v>
       </c>
       <c r="AB81">
         <f t="shared" si="3"/>
@@ -60100,7 +64300,7 @@
       </c>
       <c r="AA82">
         <f t="shared" si="2"/>
-        <v>26.532236667551075</v>
+        <v>26.416120556439964</v>
       </c>
       <c r="AB82">
         <f t="shared" si="3"/>
@@ -60179,7 +64379,7 @@
       </c>
       <c r="AA83">
         <f t="shared" si="2"/>
-        <v>32.420165342843248</v>
+        <v>32.302624787287691</v>
       </c>
       <c r="AB83">
         <f t="shared" si="3"/>
@@ -60258,7 +64458,7 @@
       </c>
       <c r="AA84">
         <f t="shared" si="2"/>
-        <v>36.469730123997081</v>
+        <v>36.350764846219306</v>
       </c>
       <c r="AB84">
         <f t="shared" si="3"/>
@@ -60337,7 +64537,7 @@
       </c>
       <c r="AA85">
         <f t="shared" si="2"/>
-        <v>22.311468094600624</v>
+        <v>22.191076983489513</v>
       </c>
       <c r="AB85">
         <f t="shared" si="3"/>
@@ -60416,7 +64616,7 @@
       </c>
       <c r="AA86">
         <f t="shared" si="2"/>
-        <v>31.545741324921135</v>
+        <v>31.423871324921134</v>
       </c>
       <c r="AB86">
         <f t="shared" si="3"/>
@@ -60495,7 +64695,7 @@
       </c>
       <c r="AA87">
         <f t="shared" si="2"/>
-        <v>25.018764073054793</v>
+        <v>24.895469073054791</v>
       </c>
       <c r="AB87">
         <f t="shared" si="3"/>
@@ -60574,7 +64774,7 @@
       </c>
       <c r="AA88">
         <f t="shared" si="2"/>
-        <v>25.753283543651818</v>
+        <v>25.628563821429594</v>
       </c>
       <c r="AB88">
         <f t="shared" si="3"/>
@@ -60653,7 +64853,7 @@
       </c>
       <c r="AA89">
         <f t="shared" si="2"/>
-        <v>18.537399202891834</v>
+        <v>18.411253647336277</v>
       </c>
       <c r="AB89">
         <f t="shared" si="3"/>
@@ -60732,7 +64932,7 @@
       </c>
       <c r="AA90">
         <f t="shared" si="2"/>
-        <v>25.565639780135495</v>
+        <v>25.438069502357717</v>
       </c>
       <c r="AB90">
         <f t="shared" si="3"/>
@@ -60811,7 +65011,7 @@
       </c>
       <c r="AA91">
         <f t="shared" si="2"/>
-        <v>22.601423889705053</v>
+        <v>22.472428889705053</v>
       </c>
       <c r="AB91">
         <f t="shared" si="3"/>
@@ -60890,7 +65090,7 @@
       </c>
       <c r="AA92">
         <f t="shared" si="2"/>
-        <v>20.251113811259618</v>
+        <v>20.120662422370732</v>
       </c>
       <c r="AB92">
         <f t="shared" si="3"/>
@@ -60969,7 +65169,7 @@
       </c>
       <c r="AA93">
         <f t="shared" si="2"/>
-        <v>24.841634579555333</v>
+        <v>24.709758468444221</v>
       </c>
       <c r="AB93">
         <f t="shared" si="3"/>
@@ -61048,7 +65248,7 @@
       </c>
       <c r="AA94">
         <f t="shared" si="2"/>
-        <v>22.456770716370986</v>
+        <v>22.323469883037653</v>
       </c>
       <c r="AB94">
         <f t="shared" si="3"/>
@@ -61127,7 +65327,7 @@
       </c>
       <c r="AA95">
         <f t="shared" si="2"/>
-        <v>18.937600606003219</v>
+        <v>18.802875050447664</v>
       </c>
       <c r="AB95">
         <f t="shared" si="3"/>
@@ -61206,7 +65406,7 @@
       </c>
       <c r="AA96">
         <f t="shared" si="2"/>
-        <v>16.450074025333116</v>
+        <v>16.313922914222001</v>
       </c>
       <c r="AB96">
         <f t="shared" si="3"/>
@@ -61285,7 +65485,7 @@
       </c>
       <c r="AA97">
         <f t="shared" si="2"/>
-        <v>15.169902912621358</v>
+        <v>15.032327357065805</v>
       </c>
       <c r="AB97">
         <f t="shared" si="3"/>
@@ -61364,7 +65564,7 @@
       </c>
       <c r="AA98">
         <f t="shared" si="2"/>
-        <v>16.147263038914904</v>
+        <v>16.008210261137126</v>
       </c>
       <c r="AB98">
         <f t="shared" si="3"/>
@@ -61443,7 +65643,7 @@
       </c>
       <c r="AA99">
         <f t="shared" si="2"/>
-        <v>15.104599350502228</v>
+        <v>14.964121294946672</v>
       </c>
       <c r="AB99">
         <f t="shared" si="3"/>
@@ -61522,7 +65722,7 @@
       </c>
       <c r="AA100">
         <f t="shared" si="2"/>
-        <v>14.600671630895022</v>
+        <v>14.458768853117245</v>
       </c>
       <c r="AB100">
         <f t="shared" si="3"/>
@@ -61601,7 +65801,7 @@
       </c>
       <c r="AA101">
         <f t="shared" si="2"/>
-        <v>16.927634363097756</v>
+        <v>16.784306863097754</v>
       </c>
       <c r="AB101">
         <f t="shared" si="3"/>
@@ -61680,7 +65880,7 @@
       </c>
       <c r="AA102">
         <f t="shared" si="2"/>
-        <v>17.876296031462282</v>
+        <v>17.731543809240058</v>
       </c>
       <c r="AB102">
         <f t="shared" si="3"/>
@@ -61759,7 +65959,7 @@
       </c>
       <c r="AA103">
         <f t="shared" si="2"/>
-        <v>21.231422505307854</v>
+        <v>21.085244449752299</v>
       </c>
       <c r="AB103">
         <f t="shared" si="3"/>
@@ -61838,7 +66038,7 @@
       </c>
       <c r="AA104">
         <f t="shared" si="2"/>
-        <v>16.221915808256956</v>
+        <v>16.074264419368067</v>
       </c>
       <c r="AB104">
         <f t="shared" si="3"/>
@@ -61917,7 +66117,7 @@
       </c>
       <c r="AA105">
         <f t="shared" si="2"/>
-        <v>18.060321473722233</v>
+        <v>17.911245362611123</v>
       </c>
       <c r="AB105">
         <f t="shared" si="3"/>
@@ -61996,7 +66196,7 @@
       </c>
       <c r="AA106">
         <f t="shared" si="2"/>
-        <v>20.134903855834089</v>
+        <v>19.984401911389647</v>
       </c>
       <c r="AB106">
         <f t="shared" si="3"/>
@@ -62075,7 +66275,7 @@
       </c>
       <c r="AA107">
         <f t="shared" si="2"/>
-        <v>19.464720194647203</v>
+        <v>19.312793805758311</v>
       </c>
       <c r="AB107">
         <f t="shared" si="3"/>
@@ -62154,7 +66354,7 @@
       </c>
       <c r="AA108">
         <f t="shared" si="2"/>
-        <v>18.735362997658079</v>
+        <v>18.582011886546969</v>
       </c>
       <c r="AB108">
         <f t="shared" si="3"/>
@@ -62233,7 +66433,7 @@
       </c>
       <c r="AA109">
         <f t="shared" si="2"/>
-        <v>16.684741803620589</v>
+        <v>16.529966248065033</v>
       </c>
       <c r="AB109">
         <f t="shared" si="3"/>
@@ -62312,7 +66512,7 @@
       </c>
       <c r="AA110">
         <f t="shared" si="2"/>
-        <v>16.450074025333116</v>
+        <v>16.293831525333115</v>
       </c>
       <c r="AB110">
         <f t="shared" si="3"/>
@@ -62391,7 +66591,7 @@
       </c>
       <c r="AA111">
         <f t="shared" si="2"/>
-        <v>18.248175182481752</v>
+        <v>18.090507682481753</v>
       </c>
       <c r="AB111">
         <f t="shared" si="3"/>
@@ -62470,7 +66670,7 @@
       </c>
       <c r="AA112">
         <f t="shared" si="2"/>
-        <v>15.235773596404357</v>
+        <v>15.076681374182133</v>
       </c>
       <c r="AB112">
         <f t="shared" si="3"/>
@@ -62549,7 +66749,7 @@
       </c>
       <c r="AA113">
         <f t="shared" si="2"/>
-        <v>19.906439733253709</v>
+        <v>19.745921955475932</v>
       </c>
       <c r="AB113">
         <f t="shared" si="3"/>
@@ -62628,7 +66828,7 @@
       </c>
       <c r="AA114">
         <f t="shared" si="2"/>
-        <v>16.684741803620589</v>
+        <v>16.522799303620587</v>
       </c>
       <c r="AB114">
         <f t="shared" si="3"/>
@@ -62707,7 +66907,7 @@
       </c>
       <c r="AA115">
         <f t="shared" si="2"/>
-        <v>17.785682525566919</v>
+        <v>17.622315303344696</v>
       </c>
       <c r="AB115">
         <f t="shared" si="3"/>
@@ -62786,7 +66986,7 @@
       </c>
       <c r="AA116">
         <f t="shared" si="2"/>
-        <v>19.573302016050107</v>
+        <v>19.408454238272331</v>
       </c>
       <c r="AB116">
         <f t="shared" si="3"/>
@@ -62865,7 +67065,7 @@
       </c>
       <c r="AA117">
         <f t="shared" si="2"/>
-        <v>21.758050478677109</v>
+        <v>21.591776867565997</v>
       </c>
       <c r="AB117">
         <f t="shared" si="3"/>
@@ -62944,7 +67144,7 @@
       </c>
       <c r="AA118">
         <f t="shared" si="2"/>
-        <v>19.906439733253709</v>
+        <v>19.738741677698155</v>
       </c>
       <c r="AB118">
         <f t="shared" si="3"/>
@@ -63023,7 +67223,7 @@
       </c>
       <c r="AA119">
         <f t="shared" si="2"/>
-        <v>17.519271198318151</v>
+        <v>17.350148420540371</v>
       </c>
       <c r="AB119">
         <f t="shared" si="3"/>
@@ -63102,7 +67302,7 @@
       </c>
       <c r="AA120">
         <f t="shared" si="2"/>
-        <v>17.176228100309171</v>
+        <v>17.005679766975838</v>
       </c>
       <c r="AB120">
         <f t="shared" si="3"/>
@@ -63181,7 +67381,7 @@
       </c>
       <c r="AA121">
         <f t="shared" si="2"/>
-        <v>15.505077913016512</v>
+        <v>15.333104857460956</v>
       </c>
       <c r="AB121">
         <f t="shared" si="3"/>
@@ -63260,7 +67460,7 @@
       </c>
       <c r="AA122">
         <f t="shared" si="2"/>
-        <v>18.248175182481752</v>
+        <v>18.074746571370643</v>
       </c>
       <c r="AB122">
         <f t="shared" si="3"/>
@@ -63339,7 +67539,7 @@
       </c>
       <c r="AA123">
         <f t="shared" si="2"/>
-        <v>18.439977872026553</v>
+        <v>18.26512370535989</v>
       </c>
       <c r="AB123">
         <f t="shared" si="3"/>
@@ -63418,7 +67618,7 @@
       </c>
       <c r="AA124">
         <f t="shared" si="2"/>
-        <v>16.927634363097756</v>
+        <v>16.751355474208868</v>
       </c>
       <c r="AB124">
         <f t="shared" si="3"/>
@@ -63497,7 +67697,7 @@
       </c>
       <c r="AA125">
         <f t="shared" si="2"/>
-        <v>17.176228100309171</v>
+        <v>16.998524489198061</v>
       </c>
       <c r="AB125">
         <f t="shared" si="3"/>
@@ -63576,7 +67776,7 @@
       </c>
       <c r="AA126">
         <f t="shared" si="2"/>
-        <v>19.357336430507164</v>
+        <v>19.17820809717383</v>
       </c>
       <c r="AB126">
         <f t="shared" si="3"/>
@@ -63655,7 +67855,7 @@
       </c>
       <c r="AA127">
         <f t="shared" si="2"/>
-        <v>18.635855385762209</v>
+        <v>18.455301496873318</v>
       </c>
       <c r="AB127">
         <f t="shared" si="3"/>
@@ -63734,7 +67934,7 @@
       </c>
       <c r="AA128">
         <f t="shared" si="2"/>
-        <v>19.357336430507164</v>
+        <v>19.175313930507162</v>
       </c>
       <c r="AB128">
         <f t="shared" si="3"/>
@@ -63813,7 +68013,7 @@
       </c>
       <c r="AA129">
         <f t="shared" si="2"/>
-        <v>20.607934054611025</v>
+        <v>20.424486832388805</v>
       </c>
       <c r="AB129">
         <f t="shared" si="3"/>
@@ -63892,7 +68092,7 @@
       </c>
       <c r="AA130">
         <f t="shared" si="2"/>
-        <v>18.439977872026553</v>
+        <v>18.255105094248776</v>
       </c>
       <c r="AB130">
         <f t="shared" si="3"/>
@@ -63970,8 +68170,8 @@
         <v>15.65</v>
       </c>
       <c r="AA131">
-        <f t="shared" ref="AA131:AA194" si="4">2000/W131</f>
-        <v>23.99232245681382</v>
+        <f t="shared" ref="AA131:AA194" si="4">(2000-W131*(A131/3600000))/W131</f>
+        <v>23.806024956813818</v>
       </c>
       <c r="AB131">
         <f t="shared" ref="AB131:AB194" si="5">IF(P131&lt;0,360+P131,P131)</f>
@@ -64050,7 +68250,7 @@
       </c>
       <c r="AA132">
         <f t="shared" si="4"/>
-        <v>19.040365575019038</v>
+        <v>18.852643352796818</v>
       </c>
       <c r="AB132">
         <f t="shared" si="5"/>
@@ -64129,7 +68329,7 @@
       </c>
       <c r="AA133">
         <f t="shared" si="4"/>
-        <v>15.927371187385523</v>
+        <v>15.738224520718857</v>
       </c>
       <c r="AB133">
         <f t="shared" si="5"/>
@@ -64208,7 +68408,7 @@
       </c>
       <c r="AA134">
         <f t="shared" si="4"/>
-        <v>21.103724807428513</v>
+        <v>20.913102307428513</v>
       </c>
       <c r="AB134">
         <f t="shared" si="5"/>
@@ -64287,7 +68487,7 @@
       </c>
       <c r="AA135">
         <f t="shared" si="4"/>
-        <v>20.607934054611025</v>
+        <v>20.415887110166583</v>
       </c>
       <c r="AB135">
         <f t="shared" si="5"/>
@@ -64366,7 +68566,7 @@
       </c>
       <c r="AA136">
         <f t="shared" si="4"/>
-        <v>24.841634579555333</v>
+        <v>24.648163190666445</v>
       </c>
       <c r="AB136">
         <f t="shared" si="5"/>
@@ -64445,7 +68645,7 @@
       </c>
       <c r="AA137">
         <f t="shared" si="4"/>
-        <v>20.48760499897562</v>
+        <v>20.292708332308951</v>
       </c>
       <c r="AB137">
         <f t="shared" si="5"/>
@@ -64524,7 +68724,7 @@
       </c>
       <c r="AA138">
         <f t="shared" si="4"/>
-        <v>23.19916483006612</v>
+        <v>23.00284344117723</v>
       </c>
       <c r="AB138">
         <f t="shared" si="5"/>
@@ -64603,7 +68803,7 @@
       </c>
       <c r="AA139">
         <f t="shared" si="4"/>
-        <v>16.221915808256956</v>
+        <v>16.024169697145844</v>
       </c>
       <c r="AB139">
         <f t="shared" si="5"/>
@@ -64682,7 +68882,7 @@
       </c>
       <c r="AA140">
         <f t="shared" si="4"/>
-        <v>22.456770716370986</v>
+        <v>22.257554605259877</v>
       </c>
       <c r="AB140">
         <f t="shared" si="5"/>
@@ -64761,7 +68961,7 @@
       </c>
       <c r="AA141">
         <f t="shared" si="4"/>
-        <v>21.623959346956429</v>
+        <v>21.423317680289763</v>
       </c>
       <c r="AB141">
         <f t="shared" si="5"/>
@@ -64840,7 +69040,7 @@
       </c>
       <c r="AA142">
         <f t="shared" si="4"/>
-        <v>20.02002002002002</v>
+        <v>19.817953631131129</v>
       </c>
       <c r="AB142">
         <f t="shared" si="5"/>
@@ -64919,7 +69119,7 @@
       </c>
       <c r="AA143">
         <f t="shared" si="4"/>
-        <v>19.464720194647203</v>
+        <v>19.26122908353609</v>
       </c>
       <c r="AB143">
         <f t="shared" si="5"/>
@@ -64998,7 +69198,7 @@
       </c>
       <c r="AA144">
         <f t="shared" si="4"/>
-        <v>22.170491076377342</v>
+        <v>21.965574687488456</v>
       </c>
       <c r="AB144">
         <f t="shared" si="5"/>
@@ -65077,7 +69277,7 @@
       </c>
       <c r="AA145">
         <f t="shared" si="4"/>
-        <v>18.937600606003219</v>
+        <v>18.731259772669887</v>
       </c>
       <c r="AB145">
         <f t="shared" si="5"/>
@@ -65156,7 +69356,7 @@
       </c>
       <c r="AA146">
         <f t="shared" si="4"/>
-        <v>20.607934054611025</v>
+        <v>20.400100443499912</v>
       </c>
       <c r="AB146">
         <f t="shared" si="5"/>
@@ -65235,7 +69435,7 @@
       </c>
       <c r="AA147">
         <f t="shared" si="4"/>
-        <v>18.34357516279923</v>
+        <v>18.13429516279923</v>
       </c>
       <c r="AB147">
         <f t="shared" si="5"/>
@@ -65314,7 +69514,7 @@
       </c>
       <c r="AA148">
         <f t="shared" si="4"/>
-        <v>20.48760499897562</v>
+        <v>20.276899443420064</v>
       </c>
       <c r="AB148">
         <f t="shared" si="5"/>
@@ -65393,7 +69593,7 @@
       </c>
       <c r="AA149">
         <f t="shared" si="4"/>
-        <v>19.906439733253709</v>
+        <v>19.694309455475931</v>
       </c>
       <c r="AB149">
         <f t="shared" si="5"/>
@@ -65472,7 +69672,7 @@
       </c>
       <c r="AA150">
         <f t="shared" si="4"/>
-        <v>18.060321473722233</v>
+        <v>17.846766473722234</v>
       </c>
       <c r="AB150">
         <f t="shared" si="5"/>
@@ -65551,7 +69751,7 @@
       </c>
       <c r="AA151">
         <f t="shared" si="4"/>
-        <v>19.040365575019038</v>
+        <v>18.825327797241261</v>
       </c>
       <c r="AB151">
         <f t="shared" si="5"/>
@@ -65630,7 +69830,7 @@
       </c>
       <c r="AA152">
         <f t="shared" si="4"/>
-        <v>20.48760499897562</v>
+        <v>20.271142498975617</v>
       </c>
       <c r="AB152">
         <f t="shared" si="5"/>
@@ -65709,7 +69909,7 @@
       </c>
       <c r="AA153">
         <f t="shared" si="4"/>
-        <v>19.464720194647203</v>
+        <v>19.246832972424979</v>
       </c>
       <c r="AB153">
         <f t="shared" si="5"/>
@@ -65788,7 +69988,7 @@
       </c>
       <c r="AA154">
         <f t="shared" si="4"/>
-        <v>19.249278152069298</v>
+        <v>19.029966207624852</v>
       </c>
       <c r="AB154">
         <f t="shared" si="5"/>
@@ -65867,7 +70067,7 @@
       </c>
       <c r="AA155">
         <f t="shared" si="4"/>
-        <v>18.937600606003219</v>
+        <v>18.716862828225441</v>
       </c>
       <c r="AB155">
         <f t="shared" si="5"/>
@@ -65946,7 +70146,7 @@
       </c>
       <c r="AA156">
         <f t="shared" si="4"/>
-        <v>16.37331150225133</v>
+        <v>16.15114900225133</v>
       </c>
       <c r="AB156">
         <f t="shared" si="5"/>
@@ -66025,7 +70225,7 @@
       </c>
       <c r="AA157">
         <f t="shared" si="4"/>
-        <v>17.176228100309171</v>
+        <v>16.952597544753619</v>
       </c>
       <c r="AB157">
         <f t="shared" si="5"/>
@@ -66104,7 +70304,7 @@
       </c>
       <c r="AA158">
         <f t="shared" si="4"/>
-        <v>19.040365575019038</v>
+        <v>18.815309741685706</v>
       </c>
       <c r="AB158">
         <f t="shared" si="5"/>
@@ -66183,7 +70383,7 @@
       </c>
       <c r="AA159">
         <f t="shared" si="4"/>
-        <v>20.134903855834089</v>
+        <v>19.908423300278532</v>
       </c>
       <c r="AB159">
         <f t="shared" si="5"/>
@@ -66262,7 +70462,7 @@
       </c>
       <c r="AA160">
         <f t="shared" si="4"/>
-        <v>17.260723224303099</v>
+        <v>17.03281794652532</v>
       </c>
       <c r="AB160">
         <f t="shared" si="5"/>
@@ -66341,7 +70541,7 @@
       </c>
       <c r="AA161">
         <f t="shared" si="4"/>
-        <v>17.785682525566919</v>
+        <v>17.556352525566918</v>
       </c>
       <c r="AB161">
         <f t="shared" si="5"/>
@@ -66420,7 +70620,7 @@
       </c>
       <c r="AA162">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>15.769244166666667</v>
       </c>
       <c r="AB162">
         <f t="shared" si="5"/>
@@ -66499,7 +70699,7 @@
       </c>
       <c r="AA163">
         <f t="shared" si="4"/>
-        <v>16.073294221650727</v>
+        <v>15.84106505498406</v>
       </c>
       <c r="AB163">
         <f t="shared" si="5"/>
@@ -66578,7 +70778,7 @@
       </c>
       <c r="AA164">
         <f t="shared" si="4"/>
-        <v>15.713387806411061</v>
+        <v>15.479733917522173</v>
       </c>
       <c r="AB164">
         <f t="shared" si="5"/>
@@ -66657,7 +70857,7 @@
       </c>
       <c r="AA165">
         <f t="shared" si="4"/>
-        <v>14.540167211922936</v>
+        <v>14.305088045256269</v>
       </c>
       <c r="AB165">
         <f t="shared" si="5"/>
@@ -66736,7 +70936,7 @@
       </c>
       <c r="AA166">
         <f t="shared" si="4"/>
-        <v>16.927634363097756</v>
+        <v>16.691130474208865</v>
       </c>
       <c r="AB166">
         <f t="shared" si="5"/>
@@ -66815,7 +71015,7 @@
       </c>
       <c r="AA167">
         <f t="shared" si="4"/>
-        <v>16.8449423060726</v>
+        <v>16.607013972739267</v>
       </c>
       <c r="AB167">
         <f t="shared" si="5"/>
@@ -66894,7 +71094,7 @@
       </c>
       <c r="AA168">
         <f t="shared" si="4"/>
-        <v>16.764459346186086</v>
+        <v>16.525106290630532</v>
       </c>
       <c r="AB168">
         <f t="shared" si="5"/>
@@ -66973,7 +71173,7 @@
       </c>
       <c r="AA169">
         <f t="shared" si="4"/>
-        <v>19.040365575019038</v>
+        <v>18.799537519463485</v>
       </c>
       <c r="AB169">
         <f t="shared" si="5"/>
@@ -67052,7 +71252,7 @@
       </c>
       <c r="AA170">
         <f t="shared" si="4"/>
-        <v>17.346053772766695</v>
+        <v>17.103800994988919</v>
       </c>
       <c r="AB170">
         <f t="shared" si="5"/>
@@ -67131,7 +71331,7 @@
       </c>
       <c r="AA171">
         <f t="shared" si="4"/>
-        <v>18.153762367250611</v>
+        <v>17.91008486725061</v>
       </c>
       <c r="AB171">
         <f t="shared" si="5"/>
@@ -67210,7 +71410,7 @@
       </c>
       <c r="AA172">
         <f t="shared" si="4"/>
-        <v>18.537399202891834</v>
+        <v>18.292296425114056</v>
       </c>
       <c r="AB172">
         <f t="shared" si="5"/>
@@ -67289,7 +71489,7 @@
       </c>
       <c r="AA173">
         <f t="shared" si="4"/>
-        <v>17.432232197332869</v>
+        <v>17.185704697332866</v>
       </c>
       <c r="AB173">
         <f t="shared" si="5"/>
@@ -67368,7 +71568,7 @@
       </c>
       <c r="AA174">
         <f t="shared" si="4"/>
-        <v>15.104599350502228</v>
+        <v>14.856647128280006</v>
       </c>
       <c r="AB174">
         <f t="shared" si="5"/>
@@ -67447,7 +71647,7 @@
       </c>
       <c r="AA175">
         <f t="shared" si="4"/>
-        <v>17.60718373096223</v>
+        <v>17.357715119851122</v>
       </c>
       <c r="AB175">
         <f t="shared" si="5"/>
@@ -67526,7 +71726,7 @@
       </c>
       <c r="AA176">
         <f t="shared" si="4"/>
-        <v>17.346053772766695</v>
+        <v>17.095159606100029</v>
       </c>
       <c r="AB176">
         <f t="shared" si="5"/>
@@ -67605,7 +71805,7 @@
       </c>
       <c r="AA177">
         <f t="shared" si="4"/>
-        <v>17.092556191778481</v>
+        <v>16.840237302889591</v>
       </c>
       <c r="AB177">
         <f t="shared" si="5"/>
@@ -67684,7 +71884,7 @@
       </c>
       <c r="AA178">
         <f t="shared" si="4"/>
-        <v>18.153762367250611</v>
+        <v>17.900018756139502</v>
       </c>
       <c r="AB178">
         <f t="shared" si="5"/>
@@ -67763,7 +71963,7 @@
       </c>
       <c r="AA179">
         <f t="shared" si="4"/>
-        <v>20.02002002002002</v>
+        <v>19.764843075575573</v>
       </c>
       <c r="AB179">
         <f t="shared" si="5"/>
@@ -67842,7 +72042,7 @@
       </c>
       <c r="AA180">
         <f t="shared" si="4"/>
-        <v>17.60718373096223</v>
+        <v>17.350548453184452</v>
       </c>
       <c r="AB180">
         <f t="shared" si="5"/>
@@ -67921,7 +72121,7 @@
       </c>
       <c r="AA181">
         <f t="shared" si="4"/>
-        <v>19.794140934283451</v>
+        <v>19.536080934283451</v>
       </c>
       <c r="AB181">
         <f t="shared" si="5"/>
@@ -68000,7 +72200,7 @@
       </c>
       <c r="AA182">
         <f t="shared" si="4"/>
-        <v>17.009695526450077</v>
+        <v>16.7502102486723</v>
       </c>
       <c r="AB182">
         <f t="shared" si="5"/>
@@ -68079,7 +72279,7 @@
       </c>
       <c r="AA183">
         <f t="shared" si="4"/>
-        <v>20.02002002002002</v>
+        <v>19.759110020020021</v>
       </c>
       <c r="AB183">
         <f t="shared" si="5"/>
@@ -68158,7 +72358,7 @@
       </c>
       <c r="AA184">
         <f t="shared" si="4"/>
-        <v>17.009695526450077</v>
+        <v>16.747360804227856</v>
       </c>
       <c r="AB184">
         <f t="shared" si="5"/>
@@ -68237,7 +72437,7 @@
       </c>
       <c r="AA185">
         <f t="shared" si="4"/>
-        <v>22.311468094600624</v>
+        <v>22.047708650156181</v>
       </c>
       <c r="AB185">
         <f t="shared" si="5"/>
@@ -68316,7 +72516,7 @@
       </c>
       <c r="AA186">
         <f t="shared" si="4"/>
-        <v>14.910907328710952</v>
+        <v>14.645680939822064</v>
       </c>
       <c r="AB186">
         <f t="shared" si="5"/>
@@ -68395,7 +72595,7 @@
       </c>
       <c r="AA187">
         <f t="shared" si="4"/>
-        <v>14.303082314238717</v>
+        <v>14.036431203127606</v>
       </c>
       <c r="AB187">
         <f t="shared" si="5"/>
@@ -68474,7 +72674,7 @@
       </c>
       <c r="AA188">
         <f t="shared" si="4"/>
-        <v>13.742870885728028</v>
+        <v>13.474795330172473</v>
       </c>
       <c r="AB188">
         <f t="shared" si="5"/>
@@ -68553,7 +72753,7 @@
       </c>
       <c r="AA189">
         <f t="shared" si="4"/>
-        <v>14.600671630895022</v>
+        <v>14.331170519783912</v>
       </c>
       <c r="AB189">
         <f t="shared" si="5"/>
@@ -68632,7 +72832,7 @@
       </c>
       <c r="AA190">
         <f t="shared" si="4"/>
-        <v>14.600671630895022</v>
+        <v>14.329746075339466</v>
       </c>
       <c r="AB190">
         <f t="shared" si="5"/>
@@ -68711,7 +72911,7 @@
       </c>
       <c r="AA191">
         <f t="shared" si="4"/>
-        <v>14.847809948032667</v>
+        <v>14.575459948032666</v>
       </c>
       <c r="AB191">
         <f t="shared" si="5"/>
@@ -68790,7 +72990,7 @@
       </c>
       <c r="AA192">
         <f t="shared" si="4"/>
-        <v>14.420650371331748</v>
+        <v>14.146827593553969</v>
       </c>
       <c r="AB192">
         <f t="shared" si="5"/>
@@ -68869,7 +73069,7 @@
       </c>
       <c r="AA193">
         <f t="shared" si="4"/>
-        <v>14.303082314238717</v>
+        <v>14.027834258683161</v>
       </c>
       <c r="AB193">
         <f t="shared" si="5"/>
@@ -68948,7 +73148,7 @@
       </c>
       <c r="AA194">
         <f t="shared" si="4"/>
-        <v>15.505077913016512</v>
+        <v>15.228405135238734</v>
       </c>
       <c r="AB194">
         <f t="shared" si="5"/>
@@ -69026,8 +73226,8 @@
         <v>14.29</v>
       </c>
       <c r="AA195">
-        <f t="shared" ref="AA195:AA258" si="6">2000/W195</f>
-        <v>15.169902912621358</v>
+        <f t="shared" ref="AA195:AA258" si="6">(2000-W195*(A195/3600000))/W195</f>
+        <v>14.891805412621359</v>
       </c>
       <c r="AB195">
         <f t="shared" ref="AB195:AB258" si="7">IF(P195&lt;0,360+P195,P195)</f>
@@ -69106,7 +73306,7 @@
       </c>
       <c r="AA196">
         <f t="shared" si="6"/>
-        <v>15.369246138476909</v>
+        <v>15.08972336069913</v>
       </c>
       <c r="AB196">
         <f t="shared" si="7"/>
@@ -69185,7 +73385,7 @@
       </c>
       <c r="AA197">
         <f t="shared" si="6"/>
-        <v>16.073294221650727</v>
+        <v>15.792346721650727</v>
       </c>
       <c r="AB197">
         <f t="shared" si="7"/>
@@ -69264,7 +73464,7 @@
       </c>
       <c r="AA198">
         <f t="shared" si="6"/>
-        <v>15.927371187385523</v>
+        <v>15.644957576274413</v>
       </c>
       <c r="AB198">
         <f t="shared" si="7"/>
@@ -69343,7 +73543,7 @@
       </c>
       <c r="AA199">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>15.716161666666666</v>
       </c>
       <c r="AB199">
         <f t="shared" si="7"/>
@@ -69422,7 +73622,7 @@
       </c>
       <c r="AA200">
         <f t="shared" si="6"/>
-        <v>15.039855617386074</v>
+        <v>14.754592006274963</v>
       </c>
       <c r="AB200">
         <f t="shared" si="7"/>
@@ -69501,7 +73701,7 @@
       </c>
       <c r="AA201">
         <f t="shared" si="6"/>
-        <v>17.009695526450077</v>
+        <v>16.723007193116743</v>
       </c>
       <c r="AB201">
         <f t="shared" si="7"/>
@@ -69580,7 +73780,7 @@
       </c>
       <c r="AA202">
         <f t="shared" si="6"/>
-        <v>15.302218821729152</v>
+        <v>15.014105766173596</v>
       </c>
       <c r="AB202">
         <f t="shared" si="7"/>
@@ -69659,7 +73859,7 @@
       </c>
       <c r="AA203">
         <f t="shared" si="6"/>
-        <v>15.302218821729152</v>
+        <v>15.01268021061804</v>
       </c>
       <c r="AB203">
         <f t="shared" si="7"/>
@@ -69738,7 +73938,7 @@
       </c>
       <c r="AA204">
         <f t="shared" si="6"/>
-        <v>14.78524432616249</v>
+        <v>14.494209326162489</v>
       </c>
       <c r="AB204">
         <f t="shared" si="7"/>
@@ -69817,7 +74017,7 @@
       </c>
       <c r="AA205">
         <f t="shared" si="6"/>
-        <v>15.104599350502228</v>
+        <v>14.812118794946672</v>
       </c>
       <c r="AB205">
         <f t="shared" si="7"/>
@@ -69896,7 +74096,7 @@
       </c>
       <c r="AA206">
         <f t="shared" si="6"/>
-        <v>15.784073869465709</v>
+        <v>15.490168591687931</v>
       </c>
       <c r="AB206">
         <f t="shared" si="7"/>
@@ -69975,7 +74175,7 @@
       </c>
       <c r="AA207">
         <f t="shared" si="6"/>
-        <v>16.37331150225133</v>
+        <v>16.077980668917995</v>
       </c>
       <c r="AB207">
         <f t="shared" si="7"/>
@@ -70054,7 +74254,7 @@
       </c>
       <c r="AA208">
         <f t="shared" si="6"/>
-        <v>17.009695526450077</v>
+        <v>16.712939970894521</v>
       </c>
       <c r="AB208">
         <f t="shared" si="7"/>
@@ -70133,7 +74333,7 @@
       </c>
       <c r="AA209">
         <f t="shared" si="6"/>
-        <v>16.527559705809438</v>
+        <v>16.229339705809437</v>
       </c>
       <c r="AB209">
         <f t="shared" si="7"/>
@@ -70212,7 +74412,7 @@
       </c>
       <c r="AA210">
         <f t="shared" si="6"/>
-        <v>15.169902912621358</v>
+        <v>14.870257357065803</v>
       </c>
       <c r="AB210">
         <f t="shared" si="7"/>
@@ -70291,7 +74491,7 @@
       </c>
       <c r="AA211">
         <f t="shared" si="6"/>
-        <v>14.073604953908943</v>
+        <v>13.772534676131166</v>
       </c>
       <c r="AB211">
         <f t="shared" si="7"/>
@@ -70370,7 +74570,7 @@
       </c>
       <c r="AA212">
         <f t="shared" si="6"/>
-        <v>15.039855617386074</v>
+        <v>14.737360617386075</v>
       </c>
       <c r="AB212">
         <f t="shared" si="7"/>
@@ -70449,7 +74649,7 @@
       </c>
       <c r="AA213">
         <f t="shared" si="6"/>
-        <v>15.302218821729152</v>
+        <v>14.998298543951375</v>
       </c>
       <c r="AB213">
         <f t="shared" si="7"/>
@@ -70528,7 +74728,7 @@
       </c>
       <c r="AA214">
         <f t="shared" si="6"/>
-        <v>15.169902912621358</v>
+        <v>14.864557912621359</v>
       </c>
       <c r="AB214">
         <f t="shared" si="7"/>
@@ -70607,7 +74807,7 @@
       </c>
       <c r="AA215">
         <f t="shared" si="6"/>
-        <v>13.324450366422386</v>
+        <v>13.017634810866831</v>
       </c>
       <c r="AB215">
         <f t="shared" si="7"/>
@@ -70686,7 +74886,7 @@
       </c>
       <c r="AA216">
         <f t="shared" si="6"/>
-        <v>13.742870885728028</v>
+        <v>13.43463060795025</v>
       </c>
       <c r="AB216">
         <f t="shared" si="7"/>
@@ -70765,7 +74965,7 @@
       </c>
       <c r="AA217">
         <f t="shared" si="6"/>
-        <v>14.847809948032667</v>
+        <v>14.538143836921554</v>
       </c>
       <c r="AB217">
         <f t="shared" si="7"/>
@@ -70844,7 +75044,7 @@
       </c>
       <c r="AA218">
         <f t="shared" si="6"/>
-        <v>15.039855617386074</v>
+        <v>14.728764784052741</v>
       </c>
       <c r="AB218">
         <f t="shared" si="7"/>
@@ -70923,7 +75123,7 @@
       </c>
       <c r="AA219">
         <f t="shared" si="6"/>
-        <v>15.713387806411061</v>
+        <v>15.400872250855507</v>
       </c>
       <c r="AB219">
         <f t="shared" si="7"/>
@@ -71002,7 +75202,7 @@
       </c>
       <c r="AA220">
         <f t="shared" si="6"/>
-        <v>15.713387806411061</v>
+        <v>15.399444750855507</v>
       </c>
       <c r="AB220">
         <f t="shared" si="7"/>
@@ -71081,7 +75281,7 @@
       </c>
       <c r="AA221">
         <f t="shared" si="6"/>
-        <v>14.78524432616249</v>
+        <v>14.469831826162489</v>
       </c>
       <c r="AB221">
         <f t="shared" si="7"/>
@@ -71160,7 +75360,7 @@
       </c>
       <c r="AA222">
         <f t="shared" si="6"/>
-        <v>15.643332029722332</v>
+        <v>15.326494807500108</v>
       </c>
       <c r="AB222">
         <f t="shared" si="7"/>
@@ -71239,7 +75439,7 @@
       </c>
       <c r="AA223">
         <f t="shared" si="6"/>
-        <v>15.235773596404357</v>
+        <v>14.917511651959913</v>
       </c>
       <c r="AB223">
         <f t="shared" si="7"/>
@@ -71318,7 +75518,7 @@
       </c>
       <c r="AA224">
         <f t="shared" si="6"/>
-        <v>17.519271198318151</v>
+        <v>17.199583420540375</v>
       </c>
       <c r="AB224">
         <f t="shared" si="7"/>
@@ -71397,7 +75597,7 @@
       </c>
       <c r="AA225">
         <f t="shared" si="6"/>
-        <v>14.540167211922936</v>
+        <v>14.219054711922936</v>
       </c>
       <c r="AB225">
         <f t="shared" si="7"/>
@@ -71476,7 +75676,7 @@
       </c>
       <c r="AA226">
         <f t="shared" si="6"/>
-        <v>14.245014245014245</v>
+        <v>13.922477022792023</v>
       </c>
       <c r="AB226">
         <f t="shared" si="7"/>
@@ -71555,7 +75755,7 @@
       </c>
       <c r="AA227">
         <f t="shared" si="6"/>
-        <v>14.540167211922936</v>
+        <v>14.216156656367382</v>
       </c>
       <c r="AB227">
         <f t="shared" si="7"/>
@@ -71634,7 +75834,7 @@
       </c>
       <c r="AA228">
         <f t="shared" si="6"/>
-        <v>14.847809948032667</v>
+        <v>14.522374670254889</v>
       </c>
       <c r="AB228">
         <f t="shared" si="7"/>
@@ -71713,7 +75913,7 @@
       </c>
       <c r="AA229">
         <f t="shared" si="6"/>
-        <v>14.600671630895022</v>
+        <v>14.273811630895022</v>
       </c>
       <c r="AB229">
         <f t="shared" si="7"/>
@@ -71792,7 +75992,7 @@
       </c>
       <c r="AA230">
         <f t="shared" si="6"/>
-        <v>14.600671630895022</v>
+        <v>14.272386075339467</v>
       </c>
       <c r="AB230">
         <f t="shared" si="7"/>
@@ -71871,7 +76071,7 @@
       </c>
       <c r="AA231">
         <f t="shared" si="6"/>
-        <v>15.505077913016512</v>
+        <v>15.175367635238734</v>
       </c>
       <c r="AB231">
         <f t="shared" si="7"/>
@@ -71950,7 +76150,7 @@
       </c>
       <c r="AA232">
         <f t="shared" si="6"/>
-        <v>15.235773596404357</v>
+        <v>14.904638596404357</v>
       </c>
       <c r="AB232">
         <f t="shared" si="7"/>
@@ -72029,7 +76229,7 @@
       </c>
       <c r="AA233">
         <f t="shared" si="6"/>
-        <v>16.073294221650727</v>
+        <v>15.740661166095171</v>
       </c>
       <c r="AB233">
         <f t="shared" si="7"/>
@@ -72108,7 +76308,7 @@
       </c>
       <c r="AA234">
         <f t="shared" si="6"/>
-        <v>17.260723224303099</v>
+        <v>16.926641835414209</v>
       </c>
       <c r="AB234">
         <f t="shared" si="7"/>
@@ -72187,7 +76387,7 @@
       </c>
       <c r="AA235">
         <f t="shared" si="6"/>
-        <v>15.573898146706123</v>
+        <v>15.238392313372788</v>
       </c>
       <c r="AB235">
         <f t="shared" si="7"/>
@@ -72266,7 +76466,7 @@
       </c>
       <c r="AA236">
         <f t="shared" si="6"/>
-        <v>14.017381553125876</v>
+        <v>13.68045099757032</v>
       </c>
       <c r="AB236">
         <f t="shared" si="7"/>
@@ -72345,7 +76545,7 @@
       </c>
       <c r="AA237">
         <f t="shared" si="6"/>
-        <v>19.794140934283451</v>
+        <v>19.455739545394561</v>
       </c>
       <c r="AB237">
         <f t="shared" si="7"/>
@@ -72424,7 +76624,7 @@
       </c>
       <c r="AA238">
         <f t="shared" si="6"/>
-        <v>20.02002002002002</v>
+        <v>19.68017613113113</v>
       </c>
       <c r="AB238">
         <f t="shared" si="7"/>
@@ -72503,7 +76703,7 @@
       </c>
       <c r="AA239">
         <f t="shared" si="6"/>
-        <v>15.436863229391788</v>
+        <v>15.095594618280677</v>
       </c>
       <c r="AB239">
         <f t="shared" si="7"/>
@@ -72582,7 +76782,7 @@
       </c>
       <c r="AA240">
         <f t="shared" si="6"/>
-        <v>17.260723224303099</v>
+        <v>16.918029890969766</v>
       </c>
       <c r="AB240">
         <f t="shared" si="7"/>
@@ -72661,7 +76861,7 @@
       </c>
       <c r="AA241">
         <f t="shared" si="6"/>
-        <v>16.764459346186086</v>
+        <v>16.420340457297197</v>
       </c>
       <c r="AB241">
         <f t="shared" si="7"/>
@@ -72740,7 +76940,7 @@
       </c>
       <c r="AA242">
         <f t="shared" si="6"/>
-        <v>13.42642320085929</v>
+        <v>13.08087958974818</v>
       </c>
       <c r="AB242">
         <f t="shared" si="7"/>
@@ -72819,7 +77019,7 @@
       </c>
       <c r="AA243">
         <f t="shared" si="6"/>
-        <v>14.420650371331748</v>
+        <v>14.073630371331747</v>
       </c>
       <c r="AB243">
         <f t="shared" si="7"/>
@@ -72898,7 +77098,7 @@
       </c>
       <c r="AA244">
         <f t="shared" si="6"/>
-        <v>17.346053772766695</v>
+        <v>16.997608217211141</v>
       </c>
       <c r="AB244">
         <f t="shared" si="7"/>
@@ -72977,7 +77177,7 @@
       </c>
       <c r="AA245">
         <f t="shared" si="6"/>
-        <v>14.303082314238717</v>
+        <v>13.95321203646094</v>
       </c>
       <c r="AB245">
         <f t="shared" si="7"/>
@@ -73056,7 +77256,7 @@
       </c>
       <c r="AA246">
         <f t="shared" si="6"/>
-        <v>15.169902912621358</v>
+        <v>14.818607912621358</v>
       </c>
       <c r="AB246">
         <f t="shared" si="7"/>
@@ -73135,7 +77335,7 @@
       </c>
       <c r="AA247">
         <f t="shared" si="6"/>
-        <v>14.723203769140165</v>
+        <v>14.37048432469572</v>
       </c>
       <c r="AB247">
         <f t="shared" si="7"/>
@@ -73214,7 +77414,7 @@
       </c>
       <c r="AA248">
         <f t="shared" si="6"/>
-        <v>14.723203769140165</v>
+        <v>14.369058491362386</v>
       </c>
       <c r="AB248">
         <f t="shared" si="7"/>
@@ -73293,7 +77493,7 @@
       </c>
       <c r="AA249">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>15.644382222222223</v>
       </c>
       <c r="AB249">
         <f t="shared" si="7"/>
@@ -73372,7 +77572,7 @@
       </c>
       <c r="AA250">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>15.642955555555556</v>
       </c>
       <c r="AB250">
         <f t="shared" si="7"/>
@@ -73451,7 +77651,7 @@
       </c>
       <c r="AA251">
         <f t="shared" si="6"/>
-        <v>15.369246138476909</v>
+        <v>15.010776416254686</v>
       </c>
       <c r="AB251">
         <f t="shared" si="7"/>
@@ -73530,7 +77730,7 @@
       </c>
       <c r="AA252">
         <f t="shared" si="6"/>
-        <v>15.235773596404357</v>
+        <v>14.875879151959911</v>
       </c>
       <c r="AB252">
         <f t="shared" si="7"/>
@@ -73609,7 +77809,7 @@
       </c>
       <c r="AA253">
         <f t="shared" si="6"/>
-        <v>16.297262059973924</v>
+        <v>15.935942893307256</v>
       </c>
       <c r="AB253">
         <f t="shared" si="7"/>
@@ -73688,7 +77888,7 @@
       </c>
       <c r="AA254">
         <f t="shared" si="6"/>
-        <v>15.436863229391788</v>
+        <v>15.074118784947343</v>
       </c>
       <c r="AB254">
         <f t="shared" si="7"/>
@@ -73767,7 +77967,7 @@
       </c>
       <c r="AA255">
         <f t="shared" si="6"/>
-        <v>18.537399202891834</v>
+        <v>18.173183647336277</v>
       </c>
       <c r="AB255">
         <f t="shared" si="7"/>
@@ -73846,7 +78046,7 @@
       </c>
       <c r="AA256">
         <f t="shared" si="6"/>
-        <v>16.221915808256956</v>
+        <v>15.856275530479177</v>
       </c>
       <c r="AB256">
         <f t="shared" si="7"/>
@@ -73925,7 +78125,7 @@
       </c>
       <c r="AA257">
         <f t="shared" si="6"/>
-        <v>16.8449423060726</v>
+        <v>16.4778773060726</v>
       </c>
       <c r="AB257">
         <f t="shared" si="7"/>
@@ -74004,7 +78204,7 @@
       </c>
       <c r="AA258">
         <f t="shared" si="6"/>
-        <v>15.643332029722332</v>
+        <v>15.274841751944553</v>
       </c>
       <c r="AB258">
         <f t="shared" si="7"/>
@@ -74082,8 +78282,8 @@
         <v>24.23</v>
       </c>
       <c r="AA259">
-        <f t="shared" ref="AA259:AA270" si="8">2000/W259</f>
-        <v>23.99232245681382</v>
+        <f t="shared" ref="AA259:AA270" si="8">(2000-W259*(A259/3600000))/W259</f>
+        <v>23.622407456813818</v>
       </c>
       <c r="AB259">
         <f t="shared" ref="AB259:AB270" si="9">IF(P259&lt;0,360+P259,P259)</f>
@@ -74162,7 +78362,7 @@
       </c>
       <c r="AA260">
         <f t="shared" si="8"/>
-        <v>17.092556191778481</v>
+        <v>16.721147580667367</v>
       </c>
       <c r="AB260">
         <f t="shared" si="9"/>
@@ -74241,7 +78441,7 @@
       </c>
       <c r="AA261">
         <f t="shared" si="8"/>
-        <v>21.758050478677109</v>
+        <v>21.385203534232666</v>
       </c>
       <c r="AB261">
         <f t="shared" si="9"/>
@@ -74320,7 +78520,7 @@
       </c>
       <c r="AA262">
         <f t="shared" si="8"/>
-        <v>25.198437696862793</v>
+        <v>24.824165752418349</v>
       </c>
       <c r="AB262">
         <f t="shared" si="9"/>
@@ -74399,7 +78599,7 @@
       </c>
       <c r="AA263">
         <f t="shared" si="8"/>
-        <v>20.977554017201594</v>
+        <v>20.601857350534925</v>
       </c>
       <c r="AB263">
         <f t="shared" si="9"/>
@@ -74478,7 +78678,7 @@
       </c>
       <c r="AA264">
         <f t="shared" si="8"/>
-        <v>15.369246138476909</v>
+        <v>14.992125027365798</v>
       </c>
       <c r="AB264">
         <f t="shared" si="9"/>
@@ -74557,7 +78757,7 @@
       </c>
       <c r="AA265">
         <f t="shared" si="8"/>
-        <v>17.69598301185631</v>
+        <v>17.317374678522977</v>
       </c>
       <c r="AB265">
         <f t="shared" si="9"/>
@@ -74636,7 +78836,7 @@
       </c>
       <c r="AA266">
         <f t="shared" si="8"/>
-        <v>17.876296031462282</v>
+        <v>17.496262975906728</v>
       </c>
       <c r="AB266">
         <f t="shared" si="9"/>
@@ -74715,7 +78915,7 @@
       </c>
       <c r="AA267">
         <f t="shared" si="8"/>
-        <v>18.248175182481752</v>
+        <v>17.866717404703973</v>
       </c>
       <c r="AB267">
         <f t="shared" si="9"/>
@@ -74794,7 +78994,7 @@
       </c>
       <c r="AA268">
         <f t="shared" si="8"/>
-        <v>19.357336430507164</v>
+        <v>18.974453097173829</v>
       </c>
       <c r="AB268">
         <f t="shared" si="9"/>
@@ -74873,7 +79073,7 @@
       </c>
       <c r="AA269">
         <f t="shared" si="8"/>
-        <v>17.176228100309171</v>
+        <v>16.791919766975838</v>
       </c>
       <c r="AB269">
         <f t="shared" si="9"/>
@@ -74952,7 +79152,7 @@
       </c>
       <c r="AA270">
         <f t="shared" si="8"/>
-        <v>17.009695526450077</v>
+        <v>16.623962193116743</v>
       </c>
       <c r="AB270">
         <f t="shared" si="9"/>
